--- a/Document/My Ais/T9_IOS/Test/T9_Test_MyAIS_APP_IOS_IPE_TH.xlsx
+++ b/Document/My Ais/T9_IOS/Test/T9_Test_MyAIS_APP_IOS_IPE_TH.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RobotFramework\Document\My Ais\T9_IOS\Test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="165" windowWidth="15360" windowHeight="4395" tabRatio="879" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="165" windowWidth="15360" windowHeight="4395" tabRatio="879" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="1" r:id="rId1"/>
@@ -20,11 +15,12 @@
     <sheet name="Balance &amp; Usage Detail" sheetId="29" r:id="rId6"/>
     <sheet name="เติมเงิน" sheetId="24" r:id="rId7"/>
     <sheet name="บริการ" sheetId="26" r:id="rId8"/>
-    <sheet name="ช่วยเหลือ" sheetId="25" r:id="rId9"/>
-    <sheet name="My Account" sheetId="27" r:id="rId10"/>
-    <sheet name="Touch ID" sheetId="23" r:id="rId11"/>
-    <sheet name="Point&amp;Privilege" sheetId="30" r:id="rId12"/>
-    <sheet name="Quick Menu" sheetId="28" r:id="rId13"/>
+    <sheet name="Hamburger " sheetId="32" r:id="rId9"/>
+    <sheet name="ช่วยเหลือ" sheetId="25" r:id="rId10"/>
+    <sheet name="My Account" sheetId="27" r:id="rId11"/>
+    <sheet name="Touch ID" sheetId="23" r:id="rId12"/>
+    <sheet name="Point&amp;Privilege" sheetId="30" r:id="rId13"/>
+    <sheet name="Quick Menu" sheetId="28" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">เติมเงิน!$A$1:$J$53</definedName>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="2189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="2249">
   <si>
     <t>ADVANCE INFO SERVICE (AIS)</t>
   </si>
@@ -23284,11 +23280,384 @@
   <si>
     <t>case duplicate no.2</t>
   </si>
+  <si>
+    <t>F3. Add Member</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ตรวจสอบหน้า "บัญชี my AIS"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>กรณี: ไม่มี my List</t>
+    </r>
+  </si>
+  <si>
+    <t>Source Number :IPE
+Status : Active</t>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. คลิกเมนู "Hamburger"
+3. คลิก "บัญชี my AIS"
+4. ตรวจสอบหน้า "บัญชี my AIS"
+- "บัญชี my AIS" at header
+- "บัญชีของคุณ"
+- "หมายเลขหลัก"
+- "อีเมล"
+- "รหัสผ่าน"
+- ปุ่ม "เพิ่ม+"
+5. จับภาพหน้าจอ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Member :กรณี ไม่มี my List
+</t>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. คลิกเมนู "Hamburger"
+3. คลิก "บัญชี my AIS"
+4. กดปุ่ม  "เพิ่ม+"  หมายเลขในบัญชี my AIS ของคุณ 
+5.แสดงหมายเลข AIS Member ที่อยู่ภายใต้ ID เดียวกัน
+ - เอไอเอส รายเดือน 
+ - เอไอเอส วัน-ทู-คอล!
+ - เอไอเอสไฟเบอร์ 
+6.กดปุ่ม รับรหัส OTP  "จากเบอร์ที่ต้องการ Add "
+7.กรอก OTP ที่ได้รับและตกลง (เมื่อตรวจสอบจะพบเครื่องหมายติ๊กถูกข้างหน้าเบอร์ที่แอด Member"
+8.กดปุ่ม  "ตกลง"
+**แสดงเบอร์ที่อยู่ใน my AIS ของคุณ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ตรวจสอบหน้า "บัญชี my AIS"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>กรณี: มี my List</t>
+    </r>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. คลิกเมนู "Hamburger"
+3. คลิก "บัญชี my AIS"
+4. ตรวจสอบหน้า "บัญชี my AIS"
+- "บัญชี my AIS" at header
+- "บัญชีของคุณ"
+- "หมายเลขหลัก"
+- "อีเมล"
+- "รหัสผ่าน"
+- "หมายเลขในบัญชี my AIS ของคุณ" at header
+- "เบอร์โทรศัพท์"
+- "จัดการหมายเลขในบัญชี my AIS ของคุณ"
+- ปุ่ม "เพิ่ม+"
+5. จับภาพหน้าจอ</t>
+  </si>
+  <si>
+    <t>F4. ลบ Member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ลบ Member :กรณี ไม่มี my List
+</t>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. คลิกเมนู "Hamburger"
+3. คลิก "บัญชี my AIS"
+4. กดปุ่ม  "เพิ่ม+"  หมายเลขในบัญชี my AIS ของคุณ 
+5.แสดงหมายเลข AIS Member ที่อยู่ภายใต้ ID เดียวกัน
+ - เอไอเอส รายเดือน 
+ - เอไอเอส วัน-ทู-คอล!
+ - เอไอเอสไฟเบอร์ 
+6.กดปุ่ม รับรหัส OTP  "จากเบอร์ที่ต้องการ Add "
+7.กรอก OTP ที่ได้รับและตกลง (เมื่อตรวจสอบจะพบเครื่องหมายติ๊กถูกข้างหน้าเบอร์ที่แอด Member" )
+8.กดปุ่ม  "ตกลง"
+**แสดงเบอร์ที่อยู่ใน my AIS ของคุณ
+9.กด ปุ่ม "-" เพื่อต้องการลบ Member 
+10.กด ยืนยัน 
+11.Verify Pop up 
+12กดปุ่ม "ตกลง"</t>
+  </si>
+  <si>
+    <t>ลบ Member :กรณีมี my List</t>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. คลิกเมนู "Hamburger"
+3. คลิก "บัญชี my AIS"
+4.แสดงหมายเลขในบัญชี my AIS ของคุณ
+-หมายเลขบัญชี 1 xxxxx
+-หมายเลขบัญชี 2 xxxxx
+5. กดปุ่ม "ลบ"
+6.กดปุ่ม "ตกลง"
+7.Verify Pop up 
+8. จับภาพหน้าจอ
+**ไม่แสดงเบอร์ที่ลบไปใน my AIS ของคุณ</t>
+  </si>
+  <si>
+    <t>ตรวจสอบหน้า เมนู "Hamburger"
+กรณี: ยังไม่สมัคร MyAIS</t>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. คลิกเมนู "Hamburger"
+3. ตรวจสอบหน้า เมนู "Hamburger"
+- "เบอร์โทรศัพท์"
+- "สมัคร my AIS" 
+- "ข้อมูลของคุณ"
+- "AIS Online Store"
+- "AIS Website"
+- "AIS Facebook"
+- "AIS Twitter"
+- "AIS Line"
+- "ตั้งค่า"
+- "ออกจากระบบ"
+4. จับภาพหน้าจอ</t>
+  </si>
+  <si>
+    <t>ตรวจสอบหน้า "สมัคร my AIS"
+กรณี: ยังไม่สมัคร MyAIS</t>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. คลิกเมนู "Hamburger"
+3. ตรวจสอบหน้า "สมัคร my AIS"
+-  "สมัคร my AIS" at header
+- "my AIS" รูปภาพ
+- "ครบทุกบริการออนไลน์" text
+- "ที่ให้คุณจัดการทุกหมายเลข ภายในบัญชีของคุณ เพียงล็อกอินเดียว" text
+- "สมัคร my AIS ได้ง่ายๆ"
+- "สมัครด้วยหมายเลขโทรศัพท์ หรือ อินเทอร์เน็ต และหมายเลขบัตรประชาชน" text
+- "เพิ่มหมายเลขสมาชิกภายในบัญชี" text
+- "ยืนยันและเริ่มใช้งานได้ทันที" text
+- ปุ่ม "สมัคร my AIS"
+4. จับภาพหน้าจอ</t>
+  </si>
+  <si>
+    <t>ตรวจสอบหน้า "ข้อมูลของคุณ"</t>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. คลิกเมนู "Hamburger"
+3. คลิก "ข้อมูลของคุณ"
+4. ตรวจสอบหน้า "ข้อมูลของคุณ"
+- "ชื่อลูกค้า"
+- "เบอร์โทรศัพท์"
+- "วันเกิด"
+- "ประเภทลูกค้า"
+- "Service year"
+- "ข้อความ"
+5. จับภาพหน้าจอ</t>
+  </si>
+  <si>
+    <t>ตรวจสอบหน้า "AIS Online Store"</t>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. คลิกเมนู "Hamburger"
+3. คลิก "AIS Online Store"
+4. ตรวจสอบหน้า "AIS Online Store"
+- "AIS Online Store" at header
+- "AIS Online Store" logo
+5. จับภาพหน้าจอ</t>
+  </si>
+  <si>
+    <t>ตรวจสอบหน้า "AIS Website"</t>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. คลิกเมนู "Hamburger"
+3. คลิก "AIS Website"
+4. ตรวจสอบหน้า "AIS Website"
+- "AIS Website" at header
+5. จับภาพหน้าจอ</t>
+  </si>
+  <si>
+    <t>ตรวจสอบหน้า "AIS Facebook"</t>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. คลิกเมนู "Hamburger"
+3. คลิก "AIS Facebook"
+4. ตรวจสอบหน้า "AIS Facebook"
+- "Facebook" at header
+5. จับภาพหน้าจอ</t>
+  </si>
+  <si>
+    <t>ตรวจสอบหน้า"AIS Twitter"</t>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. คลิกเมนู "Hamburger"
+3. คลิก "AIS Twitter"
+4. ตรวจสอบหน้า"AIS Twitter"
+- "Twitter" at header
+5. จับภาพหน้าจอ</t>
+  </si>
+  <si>
+    <t>ตรวจสอบหน้า "AIS Line"</t>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. คลิกเมนู "Hamburger"
+3. คลิก "AIS Line"
+4. ตรวจสอบหน้า "AIS Line"
+- "Line" at header
+5. จับภาพหน้าจอ</t>
+  </si>
+  <si>
+    <t>ตรวจสอบหน้า "ตั้งค่า"</t>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. คลิกเมนู "Hamburger"
+3. คลิก "ตั้งค่า"
+4. ตรวจสอบหน้า "ตั้งค่า"
+- "ตั้งค่า" at header
+- "ภาษา"
+- "เงื่อนไขบริการ"
+- "my AIS" Image
+- "my AIS Version"
+- "บริการออนไลน์รูปแบบใหม่
+ที่ให้คุณจัดการทุกเรื่อง
+ได้ด้วยตัวคุณเองตลอด 24 ชั่วโมง" text
+5. จับภาพหน้าจอ</t>
+  </si>
+  <si>
+    <t>ตรวจสอบหน้า "ล็อกอิน"
+กรณี: ออกจากระบบ</t>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. คลิกเมนู "Hamburger"
+3. คลิก "ออกจากระบบ"
+4. ตรวจสอบหน้า "ล็อกอิน"
+- AIS banner
+- "สมัคร my AIS"
+- "ล็อกอิน"
+- ปุ่ม "TH/EN"
+- "หมายเลขโทรศัพท์ / อินเทอร์เน็ต" textbox
+- ปุ่ม "ตกลง"
+- "เงื่อนไขบริการ"
+5. จับภาพหน้าจอ</t>
+  </si>
+  <si>
+    <t>ตรวจสอบหน้า เมนู "Hamburger"
+กรณี: สมัคร MyAIS</t>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. คลิกเมนู "Hamburger"
+3. ตรวจสอบหน้า เมนู "Hamburger"
+- "เบอร์โทรศัพท์"
+- "บัญชี my AIS" 
+- "ข้อมูลของคุณ"
+- "AIS Online Store"
+- "AIS Website"
+- "AIS Facebook"
+- "AIS Twitter"
+- "AIS Line"
+- "ตั้งค่า"
+- "ออกจากระบบ"
+4. จับภาพหน้าจอ</t>
+  </si>
+  <si>
+    <t>ตรวจสอบหน้า "บัญชี my AIS"
+กรณี: มี my List</t>
+  </si>
+  <si>
+    <t>ตรวจสอบหน้า "บัญชี my AIS"
+กรณี: ไม่มี my List</t>
+  </si>
+  <si>
+    <t>F3_My Account_IOS_5_1_Y_1_2</t>
+  </si>
+  <si>
+    <t>F3_My Account_IOS_5_1_Y_2_2</t>
+  </si>
+  <si>
+    <t>F3_My Account_IOS_5_1_Y_3_2</t>
+  </si>
+  <si>
+    <t>F4_My Account_IOS_5_1_Y_1_2</t>
+  </si>
+  <si>
+    <t>F4_My Account_IOS_5_1_Y_2_2</t>
+  </si>
+  <si>
+    <t>F1_Hamburger_IOS_5_1_Y_1_2</t>
+  </si>
+  <si>
+    <t>F1_Hamburger_IOS_5_1_Y_2_2</t>
+  </si>
+  <si>
+    <t>F1_Hamburger_IOS_5_1_Y_3_2</t>
+  </si>
+  <si>
+    <t>F1_Hamburger_IOS_5_1_Y_4_2</t>
+  </si>
+  <si>
+    <t>F1_Hamburger_IOS_5_1_Y_5_2</t>
+  </si>
+  <si>
+    <t>F1_Hamburger_IOS_5_1_Y_6_2</t>
+  </si>
+  <si>
+    <t>F1_Hamburger_IOS_5_1_Y_7_2</t>
+  </si>
+  <si>
+    <t>F1_Hamburger_IOS_5_1_Y_8_2</t>
+  </si>
+  <si>
+    <t>F1_Hamburger_IOS_5_1_Y_9_2</t>
+  </si>
+  <si>
+    <t>F1_Hamburger_IOS_5_1_Y_10_2</t>
+  </si>
+  <si>
+    <t>F2_Hamburger_IOS_5_1_Y_1_2</t>
+  </si>
+  <si>
+    <t>F2_Hamburger_IOS_5_1_Y_2_2</t>
+  </si>
+  <si>
+    <t>F2_Hamburger_IOS_5_1_Y_3_2</t>
+  </si>
+  <si>
+    <t>F3_Hamburger_IOS_5_1_Y_1_2</t>
+  </si>
+  <si>
+    <t>F3_Hamburger_IOS_5_1_Y_2_2</t>
+  </si>
+  <si>
+    <t>F3_Hamburger_IOS_5_1_Y_3_2</t>
+  </si>
+  <si>
+    <t>F4_Hamburger_IOS_5_1_Y_1_2</t>
+  </si>
+  <si>
+    <t>F4_Hamburger_IOS_5_1_Y_2_2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="187" formatCode="0.0"/>
     <numFmt numFmtId="188" formatCode="m/d/yy"/>
@@ -24805,7 +25174,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
@@ -24822,8 +25191,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="642">
+  <cellXfs count="657">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -26204,6 +26579,111 @@
     <xf numFmtId="0" fontId="27" fillId="32" borderId="5" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="69" fillId="19" borderId="38" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="45" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="9" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="38" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="96" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -26285,22 +26765,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -26313,118 +26777,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -26438,11 +26808,29 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -26471,25 +26859,58 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -26500,15 +26921,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -26522,18 +26934,11 @@
     <xf numFmtId="0" fontId="30" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="40" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="21" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="23" borderId="48" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="47" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="44" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="62" fillId="23" borderId="48" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="21" borderId="38" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -26542,6 +26947,7 @@
     <xf numFmtId="0" fontId="52" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="40" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="52" fillId="20" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -26549,7 +26955,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="21" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -26565,51 +26977,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="40" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="69" fillId="19" borderId="38" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="45" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="9" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="38" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="96" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11 10" xfId="3"/>
     <cellStyle name="Normal 15" xfId="7"/>
+    <cellStyle name="Normal 15 2" xfId="16"/>
+    <cellStyle name="Normal 15 3" xfId="17"/>
     <cellStyle name="Normal 2" xfId="8"/>
     <cellStyle name="Normal 2 10" xfId="5"/>
     <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 2 3" xfId="18"/>
+    <cellStyle name="Normal 2 4" xfId="19"/>
     <cellStyle name="Normal 3" xfId="9"/>
     <cellStyle name="Normal 3 2" xfId="10"/>
     <cellStyle name="Normal 3 2 2" xfId="14"/>
@@ -26617,6 +27035,8 @@
     <cellStyle name="Normal 5" xfId="11"/>
     <cellStyle name="Normal 5 2" xfId="12"/>
     <cellStyle name="Normal 5 3" xfId="13"/>
+    <cellStyle name="Normal 6" xfId="20"/>
+    <cellStyle name="Normal 7" xfId="21"/>
     <cellStyle name="Normal_Sheet1" xfId="6"/>
     <cellStyle name="Normal_Test Case &amp; Test Script V6.0_Template" xfId="2"/>
     <cellStyle name="Normal_Test Mgt_Test Script_Template_v1.0" xfId="1"/>
@@ -26745,7 +27165,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26789,7 +27209,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26833,7 +27253,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26877,7 +27297,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26921,7 +27341,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26965,7 +27385,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27009,7 +27429,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27053,7 +27473,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27097,7 +27517,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27141,7 +27561,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27185,7 +27605,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27229,7 +27649,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27273,7 +27693,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27317,7 +27737,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27361,7 +27781,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27405,7 +27825,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27449,7 +27869,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27493,7 +27913,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27537,7 +27957,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27581,7 +28001,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27625,7 +28045,7 @@
         <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27669,7 +28089,7 @@
         <xdr:cNvPr id="23" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27713,7 +28133,7 @@
         <xdr:cNvPr id="24" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27757,7 +28177,7 @@
         <xdr:cNvPr id="25" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27801,7 +28221,7 @@
         <xdr:cNvPr id="26" name="Picture 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27840,7 +28260,7 @@
         <xdr:cNvPr id="27" name="Picture 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB1EE59-264B-4BDF-9F76-B5922BA49F20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EB1EE59-264B-4BDF-9F76-B5922BA49F20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27879,7 +28299,7 @@
         <xdr:cNvPr id="28" name="Picture 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFA10B5-8507-4E8D-B170-7DEBB8AC81E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDFA10B5-8507-4E8D-B170-7DEBB8AC81E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27918,7 +28338,7 @@
         <xdr:cNvPr id="29" name="Picture 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7204DC-B61A-46E6-84DA-915C26DF0079}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B7204DC-B61A-46E6-84DA-915C26DF0079}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27957,7 +28377,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E9E01E-708C-42F6-825C-3359A0079D77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93E9E01E-708C-42F6-825C-3359A0079D77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27996,7 +28416,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B672F9C-357F-49E7-8098-B126AA3EEF24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B672F9C-357F-49E7-8098-B126AA3EEF24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28116,7 +28536,7 @@
         <xdr:cNvPr id="34" name="Picture 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28426,7 +28846,7 @@
         <xdr:cNvPr id="42" name="Picture 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28693,7 +29113,7 @@
         <xdr:cNvPr id="49" name="Picture 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB1EE59-264B-4BDF-9F76-B5922BA49F20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EB1EE59-264B-4BDF-9F76-B5922BA49F20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28732,7 +29152,7 @@
         <xdr:cNvPr id="50" name="Picture 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFA10B5-8507-4E8D-B170-7DEBB8AC81E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDFA10B5-8507-4E8D-B170-7DEBB8AC81E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28771,7 +29191,7 @@
         <xdr:cNvPr id="51" name="Picture 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E9E01E-708C-42F6-825C-3359A0079D77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93E9E01E-708C-42F6-825C-3359A0079D77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30107,7 +30527,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -30142,7 +30562,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -30844,25 +31264,25 @@
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="550" t="s">
+      <c r="C5" s="535" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="551"/>
-      <c r="E5" s="552"/>
+      <c r="D5" s="536"/>
+      <c r="E5" s="537"/>
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="548"/>
-      <c r="I5" s="548"/>
-      <c r="J5" s="548"/>
+      <c r="H5" s="527"/>
+      <c r="I5" s="527"/>
+      <c r="J5" s="527"/>
     </row>
     <row r="6" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="524"/>
-      <c r="D6" s="525"/>
-      <c r="E6" s="526"/>
+      <c r="C6" s="557"/>
+      <c r="D6" s="558"/>
+      <c r="E6" s="559"/>
       <c r="F6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -30872,23 +31292,23 @@
       <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="553"/>
-      <c r="D7" s="554"/>
-      <c r="E7" s="555"/>
+      <c r="C7" s="538"/>
+      <c r="D7" s="539"/>
+      <c r="E7" s="540"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="548"/>
-      <c r="I7" s="548"/>
-      <c r="J7" s="548"/>
+      <c r="H7" s="527"/>
+      <c r="I7" s="527"/>
+      <c r="J7" s="527"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="556" t="s">
+      <c r="C8" s="541" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="557"/>
-      <c r="E8" s="558"/>
+      <c r="D8" s="542"/>
+      <c r="E8" s="543"/>
       <c r="F8" s="7"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -30911,58 +31331,58 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B11" s="542" t="s">
+      <c r="B11" s="528" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="543"/>
-      <c r="D11" s="549"/>
-      <c r="E11" s="549"/>
-      <c r="F11" s="544"/>
+      <c r="C11" s="529"/>
+      <c r="D11" s="530"/>
+      <c r="E11" s="530"/>
+      <c r="F11" s="531"/>
     </row>
     <row r="12" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="535"/>
-      <c r="D12" s="537"/>
-      <c r="E12" s="537"/>
-      <c r="F12" s="538"/>
+      <c r="C12" s="532"/>
+      <c r="D12" s="533"/>
+      <c r="E12" s="533"/>
+      <c r="F12" s="534"/>
     </row>
     <row r="13" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="535"/>
-      <c r="D13" s="537"/>
-      <c r="E13" s="537"/>
-      <c r="F13" s="538"/>
+      <c r="C13" s="532"/>
+      <c r="D13" s="533"/>
+      <c r="E13" s="533"/>
+      <c r="F13" s="534"/>
     </row>
     <row r="14" spans="2:10" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="535"/>
-      <c r="D14" s="537"/>
-      <c r="E14" s="537"/>
-      <c r="F14" s="538"/>
+      <c r="C14" s="532"/>
+      <c r="D14" s="533"/>
+      <c r="E14" s="533"/>
+      <c r="F14" s="534"/>
     </row>
     <row r="15" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="535"/>
-      <c r="D15" s="537"/>
-      <c r="E15" s="537"/>
-      <c r="F15" s="538"/>
+      <c r="C15" s="532"/>
+      <c r="D15" s="533"/>
+      <c r="E15" s="533"/>
+      <c r="F15" s="534"/>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="539"/>
-      <c r="D16" s="540"/>
-      <c r="E16" s="540"/>
-      <c r="F16" s="541"/>
+      <c r="C16" s="568"/>
+      <c r="D16" s="569"/>
+      <c r="E16" s="569"/>
+      <c r="F16" s="570"/>
     </row>
     <row r="17" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -30972,13 +31392,13 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="542" t="s">
+      <c r="B18" s="528" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="543"/>
-      <c r="D18" s="543"/>
-      <c r="E18" s="543"/>
-      <c r="F18" s="544"/>
+      <c r="C18" s="529"/>
+      <c r="D18" s="529"/>
+      <c r="E18" s="529"/>
+      <c r="F18" s="531"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
@@ -30990,10 +31410,10 @@
       <c r="D19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="530" t="s">
+      <c r="E19" s="563" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="545"/>
+      <c r="F19" s="571"/>
     </row>
     <row r="20" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -31005,10 +31425,10 @@
       <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="535" t="s">
+      <c r="E20" s="532" t="s">
         <v>188</v>
       </c>
-      <c r="F20" s="536"/>
+      <c r="F20" s="544"/>
     </row>
     <row r="21" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="16" t="s">
@@ -31018,66 +31438,66 @@
         <v>238</v>
       </c>
       <c r="D21" s="19"/>
-      <c r="E21" s="535" t="s">
+      <c r="E21" s="532" t="s">
         <v>239</v>
       </c>
-      <c r="F21" s="536"/>
+      <c r="F21" s="544"/>
     </row>
     <row r="22" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="535"/>
-      <c r="F22" s="536"/>
+      <c r="E22" s="532"/>
+      <c r="F22" s="544"/>
     </row>
     <row r="23" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="535"/>
-      <c r="F23" s="536"/>
+      <c r="E23" s="532"/>
+      <c r="F23" s="544"/>
     </row>
     <row r="24" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="535"/>
-      <c r="F24" s="536"/>
+      <c r="E24" s="532"/>
+      <c r="F24" s="544"/>
     </row>
     <row r="25" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="535"/>
-      <c r="F25" s="536"/>
+      <c r="E25" s="532"/>
+      <c r="F25" s="544"/>
     </row>
     <row r="26" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="535"/>
-      <c r="F26" s="536"/>
+      <c r="E26" s="532"/>
+      <c r="F26" s="544"/>
     </row>
     <row r="27" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="535"/>
-      <c r="F27" s="536"/>
+      <c r="E27" s="532"/>
+      <c r="F27" s="544"/>
     </row>
     <row r="28" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="535"/>
-      <c r="F28" s="536"/>
+      <c r="E28" s="532"/>
+      <c r="F28" s="544"/>
     </row>
     <row r="29" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="546"/>
-      <c r="F29" s="547"/>
+      <c r="E29" s="545"/>
+      <c r="F29" s="546"/>
     </row>
     <row r="30" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -31087,67 +31507,67 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="527" t="s">
+      <c r="B31" s="560" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="528"/>
-      <c r="D31" s="528"/>
-      <c r="E31" s="529"/>
+      <c r="C31" s="561"/>
+      <c r="D31" s="561"/>
+      <c r="E31" s="562"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="530" t="s">
+      <c r="C32" s="563" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="531"/>
-      <c r="E32" s="531"/>
+      <c r="D32" s="564"/>
+      <c r="E32" s="564"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
-      <c r="C33" s="516"/>
-      <c r="D33" s="517"/>
-      <c r="E33" s="517"/>
+      <c r="C33" s="549"/>
+      <c r="D33" s="550"/>
+      <c r="E33" s="550"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
-      <c r="C34" s="532"/>
-      <c r="D34" s="533"/>
-      <c r="E34" s="534"/>
+      <c r="C34" s="565"/>
+      <c r="D34" s="566"/>
+      <c r="E34" s="567"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
-      <c r="C35" s="514"/>
-      <c r="D35" s="515"/>
-      <c r="E35" s="515"/>
+      <c r="C35" s="547"/>
+      <c r="D35" s="548"/>
+      <c r="E35" s="548"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
-      <c r="C36" s="516"/>
-      <c r="D36" s="517"/>
-      <c r="E36" s="517"/>
+      <c r="C36" s="549"/>
+      <c r="D36" s="550"/>
+      <c r="E36" s="550"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="518"/>
-      <c r="D37" s="519"/>
-      <c r="E37" s="520"/>
+      <c r="C37" s="551"/>
+      <c r="D37" s="552"/>
+      <c r="E37" s="553"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="521"/>
-      <c r="D38" s="522"/>
-      <c r="E38" s="523"/>
+      <c r="C38" s="554"/>
+      <c r="D38" s="555"/>
+      <c r="E38" s="556"/>
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31173,22 +31593,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -31205,6 +31609,22 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31213,13 +31633,1741 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L86"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" style="79" customWidth="1"/>
+    <col min="2" max="2" width="31" style="201" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="201" customWidth="1"/>
+    <col min="4" max="4" width="60.75" style="201" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="79" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="83" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="83" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="83" customWidth="1"/>
+    <col min="9" max="10" width="16.125" style="83" customWidth="1"/>
+    <col min="11" max="11" width="65.25" style="84" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.125" style="79"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="147" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="146" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="146" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="85" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="J1" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="85" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="178" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="205" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="200"/>
+    </row>
+    <row r="4" spans="1:11" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="177" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B4" s="181" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D4" s="176" t="s">
+        <v>779</v>
+      </c>
+      <c r="E4" s="184"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="209"/>
+      <c r="K4" s="222"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="177" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B5" s="183" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D5" s="183" t="s">
+        <v>478</v>
+      </c>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="222"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="205" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="205"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="200"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="177" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B7" s="182" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D7" s="183" t="s">
+        <v>479</v>
+      </c>
+      <c r="E7" s="182"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="216"/>
+      <c r="I7" s="216"/>
+      <c r="J7" s="216"/>
+      <c r="K7" s="222"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="177" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B8" s="183" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D8" s="183" t="s">
+        <v>481</v>
+      </c>
+      <c r="E8" s="182"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="216"/>
+      <c r="I8" s="216"/>
+      <c r="J8" s="216"/>
+      <c r="K8" s="222"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="177" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B9" s="183" t="s">
+        <v>482</v>
+      </c>
+      <c r="C9" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D9" s="183" t="s">
+        <v>495</v>
+      </c>
+      <c r="E9" s="182"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="216"/>
+      <c r="I9" s="216"/>
+      <c r="J9" s="216"/>
+      <c r="K9" s="222"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="177" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B10" s="183" t="s">
+        <v>483</v>
+      </c>
+      <c r="C10" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D10" s="183" t="s">
+        <v>496</v>
+      </c>
+      <c r="E10" s="182"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="215"/>
+      <c r="H10" s="216"/>
+      <c r="I10" s="216"/>
+      <c r="J10" s="216"/>
+      <c r="K10" s="222"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="177" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B11" s="183" t="s">
+        <v>484</v>
+      </c>
+      <c r="C11" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D11" s="183" t="s">
+        <v>497</v>
+      </c>
+      <c r="E11" s="182"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="213"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="222"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="177" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B12" s="183" t="s">
+        <v>485</v>
+      </c>
+      <c r="C12" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D12" s="183" t="s">
+        <v>498</v>
+      </c>
+      <c r="E12" s="182"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="223"/>
+      <c r="I12" s="223"/>
+      <c r="J12" s="223"/>
+      <c r="K12" s="222"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="177" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B13" s="183" t="s">
+        <v>486</v>
+      </c>
+      <c r="C13" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D13" s="183" t="s">
+        <v>539</v>
+      </c>
+      <c r="E13" s="182"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="223"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="223"/>
+      <c r="K13" s="222"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="177" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B14" s="183" t="s">
+        <v>487</v>
+      </c>
+      <c r="C14" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D14" s="183" t="s">
+        <v>540</v>
+      </c>
+      <c r="E14" s="182"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="223"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="223"/>
+      <c r="K14" s="222"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="177" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B15" s="182" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D15" s="183" t="s">
+        <v>499</v>
+      </c>
+      <c r="E15" s="182"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="223"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="223"/>
+      <c r="K15" s="222"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="177" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B16" s="183" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D16" s="183" t="s">
+        <v>500</v>
+      </c>
+      <c r="E16" s="182"/>
+      <c r="F16" s="213"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="223"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="223"/>
+      <c r="K16" s="222"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="177" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B17" s="183" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D17" s="183" t="s">
+        <v>501</v>
+      </c>
+      <c r="E17" s="182"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="223"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="222"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="177" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B18" s="191" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D18" s="191" t="s">
+        <v>502</v>
+      </c>
+      <c r="E18" s="182"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="213"/>
+      <c r="H18" s="223"/>
+      <c r="I18" s="223"/>
+      <c r="J18" s="223"/>
+      <c r="K18" s="222"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="177" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B19" s="183" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D19" s="183" t="s">
+        <v>503</v>
+      </c>
+      <c r="E19" s="182"/>
+      <c r="F19" s="213"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="223"/>
+      <c r="I19" s="223"/>
+      <c r="J19" s="223"/>
+      <c r="K19" s="222"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="177" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B20" s="183" t="s">
+        <v>362</v>
+      </c>
+      <c r="C20" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D20" s="183" t="s">
+        <v>504</v>
+      </c>
+      <c r="E20" s="182"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
+      <c r="H20" s="213"/>
+      <c r="I20" s="213"/>
+      <c r="J20" s="213"/>
+      <c r="K20" s="222"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="177" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B21" s="183" t="s">
+        <v>363</v>
+      </c>
+      <c r="C21" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D21" s="183" t="s">
+        <v>505</v>
+      </c>
+      <c r="E21" s="182"/>
+      <c r="F21" s="213"/>
+      <c r="G21" s="213"/>
+      <c r="H21" s="223"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="223"/>
+      <c r="K21" s="222"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="177" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B22" s="182" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D22" s="183" t="s">
+        <v>506</v>
+      </c>
+      <c r="E22" s="182"/>
+      <c r="F22" s="213"/>
+      <c r="G22" s="213"/>
+      <c r="H22" s="223"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="223"/>
+      <c r="K22" s="222"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="177" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B23" s="183" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D23" s="183" t="s">
+        <v>507</v>
+      </c>
+      <c r="E23" s="182"/>
+      <c r="F23" s="213"/>
+      <c r="G23" s="213"/>
+      <c r="H23" s="213"/>
+      <c r="I23" s="213"/>
+      <c r="J23" s="213"/>
+      <c r="K23" s="222"/>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="177" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B24" s="183" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D24" s="183" t="s">
+        <v>508</v>
+      </c>
+      <c r="E24" s="182"/>
+      <c r="F24" s="213"/>
+      <c r="G24" s="213"/>
+      <c r="H24" s="213"/>
+      <c r="I24" s="213"/>
+      <c r="J24" s="213"/>
+      <c r="K24" s="222"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="177" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B25" s="183" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D25" s="183" t="s">
+        <v>509</v>
+      </c>
+      <c r="E25" s="182"/>
+      <c r="F25" s="213"/>
+      <c r="G25" s="213"/>
+      <c r="H25" s="213"/>
+      <c r="I25" s="213"/>
+      <c r="J25" s="213"/>
+      <c r="K25" s="222"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="177" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B26" s="183" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D26" s="183" t="s">
+        <v>510</v>
+      </c>
+      <c r="E26" s="182"/>
+      <c r="F26" s="213"/>
+      <c r="G26" s="213"/>
+      <c r="H26" s="223"/>
+      <c r="I26" s="223"/>
+      <c r="J26" s="223"/>
+      <c r="K26" s="222"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="177" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B27" s="183" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D27" s="183" t="s">
+        <v>511</v>
+      </c>
+      <c r="E27" s="182"/>
+      <c r="F27" s="213"/>
+      <c r="G27" s="213"/>
+      <c r="H27" s="213"/>
+      <c r="I27" s="213"/>
+      <c r="J27" s="213"/>
+      <c r="K27" s="222"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="177" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B28" s="183" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D28" s="183" t="s">
+        <v>512</v>
+      </c>
+      <c r="E28" s="182"/>
+      <c r="F28" s="213"/>
+      <c r="G28" s="213"/>
+      <c r="H28" s="223"/>
+      <c r="I28" s="223"/>
+      <c r="J28" s="223"/>
+      <c r="K28" s="222"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="177" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B29" s="183" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D29" s="183" t="s">
+        <v>513</v>
+      </c>
+      <c r="E29" s="182"/>
+      <c r="F29" s="213"/>
+      <c r="G29" s="213"/>
+      <c r="H29" s="223"/>
+      <c r="I29" s="223"/>
+      <c r="J29" s="223"/>
+      <c r="K29" s="222"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="177" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B30" s="183" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D30" s="183" t="s">
+        <v>514</v>
+      </c>
+      <c r="E30" s="182"/>
+      <c r="F30" s="213"/>
+      <c r="G30" s="213"/>
+      <c r="H30" s="223"/>
+      <c r="I30" s="223"/>
+      <c r="J30" s="223"/>
+      <c r="K30" s="222"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="177" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B31" s="183" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D31" s="183" t="s">
+        <v>515</v>
+      </c>
+      <c r="E31" s="182"/>
+      <c r="F31" s="213"/>
+      <c r="G31" s="213"/>
+      <c r="H31" s="223"/>
+      <c r="I31" s="223"/>
+      <c r="J31" s="223"/>
+      <c r="K31" s="222"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="177" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B32" s="182" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D32" s="183" t="s">
+        <v>516</v>
+      </c>
+      <c r="E32" s="182"/>
+      <c r="F32" s="213"/>
+      <c r="G32" s="213"/>
+      <c r="H32" s="223"/>
+      <c r="I32" s="223"/>
+      <c r="J32" s="223"/>
+      <c r="K32" s="222"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="177" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B33" s="183" t="s">
+        <v>370</v>
+      </c>
+      <c r="C33" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D33" s="183" t="s">
+        <v>541</v>
+      </c>
+      <c r="E33" s="182"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="213"/>
+      <c r="H33" s="223"/>
+      <c r="I33" s="223"/>
+      <c r="J33" s="223"/>
+      <c r="K33" s="222"/>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="177" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B34" s="183" t="s">
+        <v>371</v>
+      </c>
+      <c r="C34" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D34" s="183" t="s">
+        <v>542</v>
+      </c>
+      <c r="E34" s="182"/>
+      <c r="F34" s="213"/>
+      <c r="G34" s="213"/>
+      <c r="H34" s="223"/>
+      <c r="I34" s="223"/>
+      <c r="J34" s="223"/>
+      <c r="K34" s="222"/>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="177" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B35" s="183" t="s">
+        <v>372</v>
+      </c>
+      <c r="C35" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D35" s="183" t="s">
+        <v>543</v>
+      </c>
+      <c r="E35" s="182"/>
+      <c r="F35" s="213"/>
+      <c r="G35" s="213"/>
+      <c r="H35" s="223"/>
+      <c r="I35" s="223"/>
+      <c r="J35" s="223"/>
+      <c r="K35" s="222"/>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="177" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B36" s="182" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D36" s="183" t="s">
+        <v>517</v>
+      </c>
+      <c r="E36" s="182"/>
+      <c r="F36" s="213"/>
+      <c r="G36" s="213"/>
+      <c r="H36" s="223"/>
+      <c r="I36" s="223"/>
+      <c r="J36" s="223"/>
+      <c r="K36" s="222"/>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="177" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B37" s="183" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D37" s="183" t="s">
+        <v>518</v>
+      </c>
+      <c r="E37" s="182"/>
+      <c r="F37" s="213"/>
+      <c r="G37" s="213"/>
+      <c r="H37" s="223"/>
+      <c r="I37" s="223"/>
+      <c r="J37" s="223"/>
+      <c r="K37" s="222"/>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="177" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B38" s="183" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D38" s="183" t="s">
+        <v>519</v>
+      </c>
+      <c r="E38" s="182"/>
+      <c r="F38" s="213"/>
+      <c r="G38" s="213"/>
+      <c r="H38" s="213"/>
+      <c r="I38" s="213"/>
+      <c r="J38" s="213"/>
+      <c r="K38" s="222"/>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="177" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B39" s="183" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D39" s="183" t="s">
+        <v>520</v>
+      </c>
+      <c r="E39" s="182"/>
+      <c r="F39" s="213"/>
+      <c r="G39" s="213"/>
+      <c r="H39" s="213"/>
+      <c r="I39" s="213"/>
+      <c r="J39" s="213"/>
+      <c r="K39" s="222"/>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="177" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B40" s="183" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D40" s="183" t="s">
+        <v>521</v>
+      </c>
+      <c r="E40" s="182"/>
+      <c r="F40" s="213"/>
+      <c r="G40" s="213"/>
+      <c r="H40" s="223"/>
+      <c r="I40" s="223"/>
+      <c r="J40" s="223"/>
+      <c r="K40" s="222"/>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="177" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B41" s="183" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D41" s="183" t="s">
+        <v>522</v>
+      </c>
+      <c r="E41" s="182"/>
+      <c r="F41" s="213"/>
+      <c r="G41" s="215"/>
+      <c r="H41" s="216"/>
+      <c r="I41" s="216"/>
+      <c r="J41" s="216"/>
+      <c r="K41" s="222"/>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="177" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B42" s="183" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D42" s="183" t="s">
+        <v>549</v>
+      </c>
+      <c r="E42" s="182"/>
+      <c r="F42" s="213"/>
+      <c r="G42" s="213"/>
+      <c r="H42" s="213"/>
+      <c r="I42" s="213"/>
+      <c r="J42" s="213"/>
+      <c r="K42" s="222"/>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="177" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B43" s="183" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D43" s="183" t="s">
+        <v>550</v>
+      </c>
+      <c r="E43" s="182"/>
+      <c r="F43" s="213"/>
+      <c r="G43" s="213"/>
+      <c r="H43" s="213"/>
+      <c r="I43" s="213"/>
+      <c r="J43" s="213"/>
+      <c r="K43" s="222"/>
+    </row>
+    <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="177" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B44" s="183" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D44" s="183" t="s">
+        <v>551</v>
+      </c>
+      <c r="E44" s="182"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="213"/>
+      <c r="H44" s="213"/>
+      <c r="I44" s="213"/>
+      <c r="J44" s="213"/>
+      <c r="K44" s="222"/>
+    </row>
+    <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="177" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B45" s="183" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D45" s="183" t="s">
+        <v>552</v>
+      </c>
+      <c r="E45" s="182"/>
+      <c r="F45" s="209"/>
+      <c r="G45" s="209"/>
+      <c r="H45" s="209"/>
+      <c r="I45" s="209"/>
+      <c r="J45" s="209"/>
+      <c r="K45" s="222"/>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="177" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B46" s="183" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D46" s="183" t="s">
+        <v>553</v>
+      </c>
+      <c r="E46" s="182"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="213"/>
+      <c r="H46" s="213"/>
+      <c r="I46" s="213"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="222"/>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="177" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B47" s="183" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D47" s="183" t="s">
+        <v>554</v>
+      </c>
+      <c r="E47" s="182"/>
+      <c r="F47" s="213"/>
+      <c r="G47" s="213"/>
+      <c r="H47" s="213"/>
+      <c r="I47" s="213"/>
+      <c r="J47" s="213"/>
+      <c r="K47" s="222"/>
+    </row>
+    <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="177" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B48" s="183" t="s">
+        <v>488</v>
+      </c>
+      <c r="C48" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D48" s="183" t="s">
+        <v>555</v>
+      </c>
+      <c r="E48" s="182"/>
+      <c r="F48" s="213"/>
+      <c r="G48" s="213"/>
+      <c r="H48" s="213"/>
+      <c r="I48" s="213"/>
+      <c r="J48" s="213"/>
+      <c r="K48" s="222"/>
+    </row>
+    <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="177" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B49" s="183" t="s">
+        <v>489</v>
+      </c>
+      <c r="C49" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D49" s="183" t="s">
+        <v>556</v>
+      </c>
+      <c r="E49" s="182"/>
+      <c r="F49" s="213"/>
+      <c r="G49" s="213"/>
+      <c r="H49" s="213"/>
+      <c r="I49" s="213"/>
+      <c r="J49" s="213"/>
+      <c r="K49" s="222"/>
+    </row>
+    <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="177" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B50" s="183" t="s">
+        <v>490</v>
+      </c>
+      <c r="C50" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D50" s="183" t="s">
+        <v>557</v>
+      </c>
+      <c r="E50" s="182"/>
+      <c r="F50" s="213"/>
+      <c r="G50" s="213"/>
+      <c r="H50" s="213"/>
+      <c r="I50" s="213"/>
+      <c r="J50" s="213"/>
+      <c r="K50" s="222"/>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="177" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B51" s="183" t="s">
+        <v>491</v>
+      </c>
+      <c r="C51" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D51" s="183" t="s">
+        <v>555</v>
+      </c>
+      <c r="E51" s="182"/>
+      <c r="F51" s="213"/>
+      <c r="G51" s="213"/>
+      <c r="H51" s="213"/>
+      <c r="I51" s="213"/>
+      <c r="J51" s="213"/>
+      <c r="K51" s="222"/>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="177" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B52" s="183" t="s">
+        <v>492</v>
+      </c>
+      <c r="C52" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D52" s="183" t="s">
+        <v>523</v>
+      </c>
+      <c r="E52" s="182"/>
+      <c r="F52" s="213"/>
+      <c r="G52" s="213"/>
+      <c r="H52" s="213"/>
+      <c r="I52" s="213"/>
+      <c r="J52" s="213"/>
+      <c r="K52" s="222"/>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="177" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B53" s="183" t="s">
+        <v>364</v>
+      </c>
+      <c r="C53" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D53" s="183" t="s">
+        <v>524</v>
+      </c>
+      <c r="E53" s="182"/>
+      <c r="F53" s="213"/>
+      <c r="G53" s="213"/>
+      <c r="H53" s="213"/>
+      <c r="I53" s="213"/>
+      <c r="J53" s="213"/>
+      <c r="K53" s="222"/>
+    </row>
+    <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="177" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B54" s="183" t="s">
+        <v>365</v>
+      </c>
+      <c r="C54" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D54" s="183" t="s">
+        <v>525</v>
+      </c>
+      <c r="E54" s="182"/>
+      <c r="F54" s="213"/>
+      <c r="G54" s="213"/>
+      <c r="H54" s="213"/>
+      <c r="I54" s="213"/>
+      <c r="J54" s="213"/>
+      <c r="K54" s="222"/>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="177" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B55" s="183" t="s">
+        <v>366</v>
+      </c>
+      <c r="C55" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D55" s="183" t="s">
+        <v>526</v>
+      </c>
+      <c r="E55" s="182"/>
+      <c r="F55" s="213"/>
+      <c r="G55" s="213"/>
+      <c r="H55" s="213"/>
+      <c r="I55" s="213"/>
+      <c r="J55" s="213"/>
+      <c r="K55" s="222"/>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="177" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B56" s="183" t="s">
+        <v>367</v>
+      </c>
+      <c r="C56" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D56" s="183" t="s">
+        <v>527</v>
+      </c>
+      <c r="E56" s="182"/>
+      <c r="F56" s="213"/>
+      <c r="G56" s="213"/>
+      <c r="H56" s="213"/>
+      <c r="I56" s="213"/>
+      <c r="J56" s="213"/>
+      <c r="K56" s="222"/>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="177" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B57" s="183" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D57" s="183" t="s">
+        <v>544</v>
+      </c>
+      <c r="E57" s="182"/>
+      <c r="F57" s="213"/>
+      <c r="G57" s="213"/>
+      <c r="H57" s="213"/>
+      <c r="I57" s="213"/>
+      <c r="J57" s="213"/>
+      <c r="K57" s="222"/>
+    </row>
+    <row r="58" spans="1:11" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="177" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B58" s="183" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D58" s="183" t="s">
+        <v>545</v>
+      </c>
+      <c r="E58" s="182"/>
+      <c r="F58" s="213"/>
+      <c r="G58" s="213"/>
+      <c r="H58" s="213"/>
+      <c r="I58" s="213"/>
+      <c r="J58" s="213"/>
+      <c r="K58" s="222"/>
+    </row>
+    <row r="59" spans="1:11" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="177" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B59" s="183" t="s">
+        <v>208</v>
+      </c>
+      <c r="C59" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D59" s="183" t="s">
+        <v>546</v>
+      </c>
+      <c r="E59" s="182"/>
+      <c r="F59" s="213"/>
+      <c r="G59" s="213"/>
+      <c r="H59" s="213"/>
+      <c r="I59" s="213"/>
+      <c r="J59" s="213"/>
+      <c r="K59" s="222"/>
+    </row>
+    <row r="60" spans="1:11" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="177" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B60" s="183" t="s">
+        <v>368</v>
+      </c>
+      <c r="C60" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D60" s="183" t="s">
+        <v>547</v>
+      </c>
+      <c r="E60" s="182"/>
+      <c r="F60" s="213"/>
+      <c r="G60" s="213"/>
+      <c r="H60" s="213"/>
+      <c r="I60" s="213"/>
+      <c r="J60" s="213"/>
+      <c r="K60" s="222"/>
+    </row>
+    <row r="61" spans="1:11" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="177" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B61" s="183" t="s">
+        <v>369</v>
+      </c>
+      <c r="C61" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D61" s="183" t="s">
+        <v>548</v>
+      </c>
+      <c r="E61" s="182"/>
+      <c r="F61" s="213"/>
+      <c r="G61" s="213"/>
+      <c r="H61" s="213"/>
+      <c r="I61" s="213"/>
+      <c r="J61" s="213"/>
+      <c r="K61" s="222"/>
+    </row>
+    <row r="62" spans="1:11" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="177" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B62" s="183" t="s">
+        <v>373</v>
+      </c>
+      <c r="C62" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D62" s="183" t="s">
+        <v>493</v>
+      </c>
+      <c r="E62" s="182"/>
+      <c r="F62" s="213"/>
+      <c r="G62" s="213"/>
+      <c r="H62" s="213"/>
+      <c r="I62" s="213"/>
+      <c r="J62" s="213"/>
+      <c r="K62" s="222"/>
+    </row>
+    <row r="63" spans="1:11" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="177" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B63" s="183" t="s">
+        <v>374</v>
+      </c>
+      <c r="C63" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D63" s="183" t="s">
+        <v>528</v>
+      </c>
+      <c r="E63" s="183"/>
+      <c r="F63" s="213"/>
+      <c r="G63" s="213"/>
+      <c r="H63" s="213"/>
+      <c r="I63" s="213"/>
+      <c r="J63" s="213"/>
+      <c r="K63" s="222"/>
+    </row>
+    <row r="64" spans="1:11" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="177" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B64" s="183" t="s">
+        <v>375</v>
+      </c>
+      <c r="C64" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D64" s="183" t="s">
+        <v>529</v>
+      </c>
+      <c r="E64" s="182"/>
+      <c r="F64" s="213"/>
+      <c r="G64" s="213"/>
+      <c r="H64" s="213"/>
+      <c r="I64" s="213"/>
+      <c r="J64" s="213"/>
+      <c r="K64" s="222"/>
+    </row>
+    <row r="65" spans="1:12" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="177" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B65" s="183" t="s">
+        <v>376</v>
+      </c>
+      <c r="C65" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D65" s="183" t="s">
+        <v>530</v>
+      </c>
+      <c r="E65" s="182"/>
+      <c r="F65" s="213"/>
+      <c r="G65" s="213"/>
+      <c r="H65" s="213"/>
+      <c r="I65" s="213"/>
+      <c r="J65" s="213"/>
+      <c r="K65" s="222"/>
+    </row>
+    <row r="66" spans="1:12" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="177" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B66" s="183" t="s">
+        <v>377</v>
+      </c>
+      <c r="C66" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D66" s="183" t="s">
+        <v>531</v>
+      </c>
+      <c r="E66" s="182"/>
+      <c r="F66" s="213"/>
+      <c r="G66" s="213"/>
+      <c r="H66" s="213"/>
+      <c r="I66" s="213"/>
+      <c r="J66" s="213"/>
+      <c r="K66" s="222"/>
+    </row>
+    <row r="67" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="205" t="s">
+        <v>226</v>
+      </c>
+      <c r="B67" s="205"/>
+      <c r="C67" s="205"/>
+      <c r="D67" s="205"/>
+      <c r="E67" s="189"/>
+      <c r="F67" s="186"/>
+      <c r="G67" s="186"/>
+      <c r="H67" s="186"/>
+      <c r="I67" s="186"/>
+      <c r="J67" s="186"/>
+      <c r="K67" s="200"/>
+    </row>
+    <row r="68" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="177" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B68" s="181" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D68" s="176" t="s">
+        <v>532</v>
+      </c>
+      <c r="E68" s="181"/>
+      <c r="F68" s="213"/>
+      <c r="G68" s="213"/>
+      <c r="H68" s="213"/>
+      <c r="I68" s="213"/>
+      <c r="J68" s="213"/>
+      <c r="K68" s="222"/>
+    </row>
+    <row r="69" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="177" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B69" s="176" t="s">
+        <v>218</v>
+      </c>
+      <c r="C69" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D69" s="176" t="s">
+        <v>533</v>
+      </c>
+      <c r="E69" s="181"/>
+      <c r="F69" s="213"/>
+      <c r="G69" s="213"/>
+      <c r="H69" s="213"/>
+      <c r="I69" s="213"/>
+      <c r="J69" s="213"/>
+      <c r="K69" s="222"/>
+    </row>
+    <row r="70" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="177" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B70" s="176" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D70" s="176" t="s">
+        <v>534</v>
+      </c>
+      <c r="E70" s="181"/>
+      <c r="F70" s="213"/>
+      <c r="G70" s="213"/>
+      <c r="H70" s="213"/>
+      <c r="I70" s="213"/>
+      <c r="J70" s="213"/>
+      <c r="K70" s="222"/>
+    </row>
+    <row r="71" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="177" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B71" s="176" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D71" s="176" t="s">
+        <v>494</v>
+      </c>
+      <c r="E71" s="181"/>
+      <c r="F71" s="213"/>
+      <c r="G71" s="213"/>
+      <c r="H71" s="213"/>
+      <c r="I71" s="213"/>
+      <c r="J71" s="213"/>
+      <c r="K71" s="222"/>
+    </row>
+    <row r="72" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="177" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B72" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="C72" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D72" s="176" t="s">
+        <v>535</v>
+      </c>
+      <c r="E72" s="181"/>
+      <c r="F72" s="213"/>
+      <c r="G72" s="213"/>
+      <c r="H72" s="213"/>
+      <c r="I72" s="213"/>
+      <c r="J72" s="213"/>
+      <c r="K72" s="222"/>
+    </row>
+    <row r="73" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="177" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B73" s="176" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D73" s="176" t="s">
+        <v>536</v>
+      </c>
+      <c r="E73" s="181"/>
+      <c r="F73" s="213"/>
+      <c r="G73" s="213"/>
+      <c r="H73" s="213"/>
+      <c r="I73" s="213"/>
+      <c r="J73" s="213"/>
+      <c r="K73" s="222"/>
+    </row>
+    <row r="74" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="177" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B74" s="176" t="s">
+        <v>223</v>
+      </c>
+      <c r="C74" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D74" s="176" t="s">
+        <v>537</v>
+      </c>
+      <c r="E74" s="181"/>
+      <c r="F74" s="213"/>
+      <c r="G74" s="213"/>
+      <c r="H74" s="213"/>
+      <c r="I74" s="213"/>
+      <c r="J74" s="213"/>
+      <c r="K74" s="222"/>
+    </row>
+    <row r="75" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="192" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B75" s="193" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" s="193" t="s">
+        <v>761</v>
+      </c>
+      <c r="D75" s="193" t="s">
+        <v>538</v>
+      </c>
+      <c r="E75" s="194"/>
+      <c r="F75" s="195"/>
+      <c r="G75" s="195"/>
+      <c r="H75" s="195"/>
+      <c r="I75" s="195"/>
+      <c r="J75" s="195"/>
+      <c r="K75" s="190" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="177" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B76" s="176" t="s">
+        <v>237</v>
+      </c>
+      <c r="C76" s="176" t="s">
+        <v>761</v>
+      </c>
+      <c r="D76" s="176" t="s">
+        <v>558</v>
+      </c>
+      <c r="E76" s="181"/>
+      <c r="F76" s="213"/>
+      <c r="G76" s="213"/>
+      <c r="H76" s="213"/>
+      <c r="I76" s="213"/>
+      <c r="J76" s="213"/>
+      <c r="K76" s="196" t="s">
+        <v>559</v>
+      </c>
+      <c r="L76" s="185"/>
+    </row>
+    <row r="77" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F77" s="87"/>
+      <c r="G77" s="87"/>
+      <c r="H77" s="87"/>
+      <c r="I77" s="87"/>
+      <c r="J77" s="87"/>
+      <c r="K77" s="88"/>
+      <c r="L77" s="185"/>
+    </row>
+    <row r="78" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="87"/>
+      <c r="G78" s="87"/>
+      <c r="H78" s="87"/>
+      <c r="I78" s="87"/>
+      <c r="J78" s="87"/>
+      <c r="K78" s="88"/>
+      <c r="L78" s="185"/>
+    </row>
+    <row r="79" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="79"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="79"/>
+      <c r="F79" s="87"/>
+      <c r="G79" s="87"/>
+      <c r="H79" s="87"/>
+      <c r="I79" s="87"/>
+      <c r="J79" s="87"/>
+      <c r="K79" s="88"/>
+      <c r="L79" s="185"/>
+    </row>
+    <row r="80" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="79"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="79"/>
+      <c r="F80" s="87"/>
+      <c r="G80" s="87"/>
+      <c r="H80" s="87"/>
+      <c r="I80" s="87"/>
+      <c r="J80" s="87"/>
+      <c r="K80" s="88"/>
+      <c r="L80" s="185"/>
+    </row>
+    <row r="81" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="79"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="79"/>
+      <c r="F81" s="87"/>
+      <c r="G81" s="87"/>
+      <c r="H81" s="87"/>
+      <c r="I81" s="87"/>
+      <c r="J81" s="87"/>
+      <c r="K81" s="88"/>
+      <c r="L81" s="185"/>
+    </row>
+    <row r="82" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="79"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="79"/>
+      <c r="F82" s="87"/>
+      <c r="G82" s="87"/>
+      <c r="H82" s="87"/>
+      <c r="I82" s="87"/>
+      <c r="J82" s="87"/>
+      <c r="K82" s="88"/>
+      <c r="L82" s="185"/>
+    </row>
+    <row r="83" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="79"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="79"/>
+      <c r="F83" s="87"/>
+      <c r="G83" s="87"/>
+      <c r="H83" s="87"/>
+      <c r="I83" s="87"/>
+      <c r="J83" s="87"/>
+      <c r="K83" s="88"/>
+      <c r="L83" s="185"/>
+    </row>
+    <row r="84" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="79"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="79"/>
+      <c r="F84" s="87"/>
+      <c r="G84" s="87"/>
+      <c r="H84" s="87"/>
+      <c r="I84" s="87"/>
+      <c r="J84" s="87"/>
+      <c r="K84" s="88"/>
+      <c r="L84" s="185"/>
+    </row>
+    <row r="85" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F85" s="87"/>
+      <c r="G85" s="87"/>
+      <c r="H85" s="87"/>
+      <c r="I85" s="87"/>
+      <c r="J85" s="87"/>
+      <c r="K85" s="88"/>
+      <c r="L85" s="185"/>
+    </row>
+    <row r="86" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F86" s="87"/>
+      <c r="G86" s="87"/>
+      <c r="H86" s="87"/>
+      <c r="I86" s="87"/>
+      <c r="J86" s="87"/>
+      <c r="K86" s="88"/>
+      <c r="L86" s="185"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFCCFF99"/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31267,10 +33415,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="608" t="s">
+      <c r="A2" s="621" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="609"/>
+      <c r="B2" s="622"/>
       <c r="C2" s="447"/>
       <c r="D2" s="447"/>
       <c r="E2" s="439"/>
@@ -31492,10 +33640,10 @@
       <c r="K12" s="444"/>
     </row>
     <row r="13" spans="1:11" s="180" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="608" t="s">
+      <c r="A13" s="621" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="609"/>
+      <c r="B13" s="622"/>
       <c r="C13" s="447"/>
       <c r="D13" s="447"/>
       <c r="E13" s="439"/>
@@ -31569,7 +33717,7 @@
       <c r="J16" s="443"/>
       <c r="K16" s="444"/>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="446" t="s">
         <v>1438</v>
       </c>
@@ -31589,7 +33737,7 @@
       <c r="I17" s="443"/>
       <c r="J17" s="443"/>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="446" t="s">
         <v>1439</v>
       </c>
@@ -31609,7 +33757,7 @@
       <c r="I18" s="443"/>
       <c r="J18" s="443"/>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="446" t="s">
         <v>1440</v>
       </c>
@@ -31629,7 +33777,7 @@
       <c r="I19" s="443"/>
       <c r="J19" s="443"/>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="446" t="s">
         <v>1441</v>
       </c>
@@ -31649,7 +33797,7 @@
       <c r="I20" s="443"/>
       <c r="J20" s="443"/>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="446" t="s">
         <v>1442</v>
       </c>
@@ -31669,7 +33817,7 @@
       <c r="I21" s="443"/>
       <c r="J21" s="443"/>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="446" t="s">
         <v>1443</v>
       </c>
@@ -31689,7 +33837,7 @@
       <c r="I22" s="443"/>
       <c r="J22" s="443"/>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="446" t="s">
         <v>1444</v>
       </c>
@@ -31709,7 +33857,7 @@
       <c r="I23" s="443"/>
       <c r="J23" s="443"/>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="446" t="s">
         <v>1445</v>
       </c>
@@ -31729,7 +33877,7 @@
       <c r="I24" s="443"/>
       <c r="J24" s="443"/>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="446" t="s">
         <v>1446</v>
       </c>
@@ -31749,21 +33897,157 @@
       <c r="I25" s="443"/>
       <c r="J25" s="443"/>
     </row>
+    <row r="26" spans="1:11" s="644" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="642" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B26" s="642"/>
+      <c r="C26" s="643"/>
+      <c r="D26" s="643"/>
+      <c r="E26" s="643"/>
+      <c r="F26" s="643"/>
+      <c r="G26" s="643"/>
+      <c r="H26" s="643"/>
+      <c r="I26" s="643"/>
+      <c r="J26" s="643"/>
+      <c r="K26" s="643"/>
+    </row>
+    <row r="27" spans="1:11" s="648" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="645" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B27" s="646" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C27" s="646" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D27" s="646" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E27" s="647"/>
+      <c r="F27" s="647"/>
+      <c r="G27" s="647"/>
+      <c r="H27" s="647"/>
+      <c r="I27" s="647"/>
+      <c r="J27" s="647"/>
+      <c r="K27" s="647"/>
+    </row>
+    <row r="28" spans="1:11" s="648" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="645" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B28" s="646" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C28" s="646" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D28" s="646" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E28" s="647"/>
+      <c r="F28" s="647"/>
+      <c r="G28" s="647"/>
+      <c r="H28" s="647"/>
+      <c r="I28" s="647"/>
+      <c r="J28" s="647"/>
+      <c r="K28" s="647"/>
+    </row>
+    <row r="29" spans="1:11" s="648" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="645" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B29" s="646" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C29" s="646" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D29" s="646" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E29" s="647"/>
+      <c r="F29" s="647"/>
+      <c r="G29" s="647"/>
+      <c r="H29" s="647"/>
+      <c r="I29" s="647"/>
+      <c r="J29" s="647"/>
+      <c r="K29" s="647"/>
+    </row>
+    <row r="30" spans="1:11" s="120" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="115" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+    </row>
+    <row r="31" spans="1:11" s="648" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="645" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B31" s="646" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C31" s="646" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D31" s="646" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E31" s="647"/>
+      <c r="F31" s="647"/>
+      <c r="G31" s="647"/>
+      <c r="H31" s="647"/>
+      <c r="I31" s="647"/>
+      <c r="J31" s="647"/>
+      <c r="K31" s="647"/>
+    </row>
+    <row r="32" spans="1:11" s="648" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="645" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B32" s="646" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C32" s="646" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D32" s="646" t="s">
+        <v>2201</v>
+      </c>
+      <c r="E32" s="649"/>
+      <c r="F32" s="649"/>
+      <c r="G32" s="649"/>
+      <c r="H32" s="649"/>
+      <c r="I32" s="649"/>
+      <c r="J32" s="649"/>
+      <c r="K32" s="649"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -31787,98 +34071,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="622" t="s">
+      <c r="A1" s="634" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="610" t="s">
+      <c r="B1" s="633" t="s">
         <v>664</v>
       </c>
-      <c r="C1" s="610" t="s">
+      <c r="C1" s="633" t="s">
         <v>665</v>
       </c>
-      <c r="D1" s="610" t="s">
+      <c r="D1" s="633" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="610" t="s">
+      <c r="E1" s="633" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="610" t="s">
+      <c r="F1" s="633" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="610" t="s">
+      <c r="G1" s="633" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="610" t="s">
+      <c r="H1" s="633" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="610" t="s">
+      <c r="I1" s="633" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="610" t="s">
+      <c r="J1" s="633" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="610" t="s">
+      <c r="K1" s="633" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="610" t="s">
+      <c r="L1" s="633" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="619" t="s">
+      <c r="M1" s="629" t="s">
         <v>666</v>
       </c>
-      <c r="N1" s="620" t="s">
+      <c r="N1" s="631" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="611"/>
-      <c r="B2" s="611"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="611"/>
-      <c r="E2" s="611"/>
-      <c r="F2" s="611"/>
-      <c r="G2" s="611"/>
-      <c r="H2" s="611"/>
-      <c r="I2" s="611"/>
-      <c r="J2" s="611"/>
-      <c r="K2" s="611"/>
-      <c r="L2" s="611"/>
-      <c r="M2" s="611"/>
-      <c r="N2" s="614"/>
+      <c r="A2" s="630"/>
+      <c r="B2" s="630"/>
+      <c r="C2" s="630"/>
+      <c r="D2" s="630"/>
+      <c r="E2" s="630"/>
+      <c r="F2" s="630"/>
+      <c r="G2" s="630"/>
+      <c r="H2" s="630"/>
+      <c r="I2" s="630"/>
+      <c r="J2" s="630"/>
+      <c r="K2" s="630"/>
+      <c r="L2" s="630"/>
+      <c r="M2" s="630"/>
+      <c r="N2" s="625"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="616" t="s">
+      <c r="A3" s="626" t="s">
         <v>668</v>
       </c>
-      <c r="B3" s="617"/>
-      <c r="C3" s="617"/>
-      <c r="D3" s="617"/>
-      <c r="E3" s="617"/>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="617"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="617"/>
-      <c r="L3" s="618"/>
+      <c r="B3" s="627"/>
+      <c r="C3" s="627"/>
+      <c r="D3" s="627"/>
+      <c r="E3" s="627"/>
+      <c r="F3" s="627"/>
+      <c r="G3" s="627"/>
+      <c r="H3" s="627"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="627"/>
+      <c r="K3" s="627"/>
+      <c r="L3" s="628"/>
       <c r="M3" s="231"/>
       <c r="N3" s="232"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="621" t="s">
+      <c r="A4" s="632" t="s">
         <v>669</v>
       </c>
-      <c r="B4" s="617"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="617"/>
-      <c r="E4" s="617"/>
-      <c r="F4" s="617"/>
-      <c r="G4" s="617"/>
-      <c r="H4" s="617"/>
-      <c r="I4" s="617"/>
-      <c r="J4" s="617"/>
-      <c r="K4" s="617"/>
-      <c r="L4" s="618"/>
+      <c r="B4" s="627"/>
+      <c r="C4" s="627"/>
+      <c r="D4" s="627"/>
+      <c r="E4" s="627"/>
+      <c r="F4" s="627"/>
+      <c r="G4" s="627"/>
+      <c r="H4" s="627"/>
+      <c r="I4" s="627"/>
+      <c r="J4" s="627"/>
+      <c r="K4" s="627"/>
+      <c r="L4" s="628"/>
       <c r="M4" s="233"/>
       <c r="N4" s="234"/>
     </row>
@@ -32013,7 +34297,7 @@
       <c r="G9" s="239" t="s">
         <v>677</v>
       </c>
-      <c r="H9" s="636"/>
+      <c r="H9" s="521"/>
       <c r="I9" s="249"/>
       <c r="J9" s="250"/>
       <c r="K9" s="251"/>
@@ -32021,51 +34305,51 @@
       <c r="M9" s="252"/>
       <c r="N9" s="253"/>
     </row>
-    <row r="10" spans="1:14" s="634" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="629" t="s">
+    <row r="10" spans="1:14" s="519" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="514" t="s">
         <v>1136</v>
       </c>
-      <c r="B10" s="630" t="s">
+      <c r="B10" s="515" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="630"/>
-      <c r="D10" s="631" t="s">
+      <c r="C10" s="515"/>
+      <c r="D10" s="516" t="s">
         <v>674</v>
       </c>
-      <c r="E10" s="632" t="s">
+      <c r="E10" s="517" t="s">
         <v>2187</v>
       </c>
-      <c r="F10" s="631" t="s">
+      <c r="F10" s="516" t="s">
         <v>687</v>
       </c>
-      <c r="G10" s="635" t="s">
+      <c r="G10" s="520" t="s">
         <v>688</v>
       </c>
-      <c r="H10" s="637"/>
-      <c r="I10" s="638"/>
-      <c r="J10" s="639"/>
-      <c r="K10" s="640"/>
-      <c r="L10" s="641" t="s">
+      <c r="H10" s="522"/>
+      <c r="I10" s="523"/>
+      <c r="J10" s="524"/>
+      <c r="K10" s="525"/>
+      <c r="L10" s="526" t="s">
         <v>2188</v>
       </c>
-      <c r="M10" s="633"/>
-      <c r="N10" s="633"/>
+      <c r="M10" s="518"/>
+      <c r="N10" s="518"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="616" t="s">
+      <c r="A11" s="626" t="s">
         <v>689</v>
       </c>
-      <c r="B11" s="613"/>
-      <c r="C11" s="613"/>
-      <c r="D11" s="617"/>
-      <c r="E11" s="613"/>
-      <c r="F11" s="617"/>
-      <c r="G11" s="617"/>
-      <c r="H11" s="613"/>
-      <c r="I11" s="613"/>
-      <c r="J11" s="613"/>
-      <c r="K11" s="613"/>
-      <c r="L11" s="614"/>
+      <c r="B11" s="624"/>
+      <c r="C11" s="624"/>
+      <c r="D11" s="627"/>
+      <c r="E11" s="624"/>
+      <c r="F11" s="627"/>
+      <c r="G11" s="627"/>
+      <c r="H11" s="624"/>
+      <c r="I11" s="624"/>
+      <c r="J11" s="624"/>
+      <c r="K11" s="624"/>
+      <c r="L11" s="625"/>
       <c r="M11" s="231"/>
       <c r="N11" s="231"/>
     </row>
@@ -32126,20 +34410,20 @@
       <c r="N13" s="265"/>
     </row>
     <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="616" t="s">
+      <c r="A14" s="626" t="s">
         <v>697</v>
       </c>
-      <c r="B14" s="617"/>
-      <c r="C14" s="617"/>
-      <c r="D14" s="617"/>
-      <c r="E14" s="617"/>
-      <c r="F14" s="617"/>
-      <c r="G14" s="617"/>
-      <c r="H14" s="617"/>
-      <c r="I14" s="617"/>
-      <c r="J14" s="617"/>
-      <c r="K14" s="617"/>
-      <c r="L14" s="618"/>
+      <c r="B14" s="627"/>
+      <c r="C14" s="627"/>
+      <c r="D14" s="627"/>
+      <c r="E14" s="627"/>
+      <c r="F14" s="627"/>
+      <c r="G14" s="627"/>
+      <c r="H14" s="627"/>
+      <c r="I14" s="627"/>
+      <c r="J14" s="627"/>
+      <c r="K14" s="627"/>
+      <c r="L14" s="628"/>
       <c r="M14" s="264"/>
       <c r="N14" s="265"/>
     </row>
@@ -32200,20 +34484,20 @@
       <c r="N16" s="273"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="612" t="s">
+      <c r="A17" s="635" t="s">
         <v>704</v>
       </c>
-      <c r="B17" s="613"/>
-      <c r="C17" s="613"/>
-      <c r="D17" s="613"/>
-      <c r="E17" s="613"/>
-      <c r="F17" s="613"/>
-      <c r="G17" s="613"/>
-      <c r="H17" s="613"/>
-      <c r="I17" s="613"/>
-      <c r="J17" s="613"/>
-      <c r="K17" s="613"/>
-      <c r="L17" s="614"/>
+      <c r="B17" s="624"/>
+      <c r="C17" s="624"/>
+      <c r="D17" s="624"/>
+      <c r="E17" s="624"/>
+      <c r="F17" s="624"/>
+      <c r="G17" s="624"/>
+      <c r="H17" s="624"/>
+      <c r="I17" s="624"/>
+      <c r="J17" s="624"/>
+      <c r="K17" s="624"/>
+      <c r="L17" s="625"/>
       <c r="M17" s="274"/>
       <c r="N17" s="275"/>
     </row>
@@ -32530,20 +34814,20 @@
       <c r="N30" s="312"/>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="615" t="s">
+      <c r="A31" s="623" t="s">
         <v>742</v>
       </c>
-      <c r="B31" s="613"/>
-      <c r="C31" s="613"/>
-      <c r="D31" s="613"/>
-      <c r="E31" s="613"/>
-      <c r="F31" s="613"/>
-      <c r="G31" s="613"/>
-      <c r="H31" s="613"/>
-      <c r="I31" s="613"/>
-      <c r="J31" s="613"/>
-      <c r="K31" s="613"/>
-      <c r="L31" s="614"/>
+      <c r="B31" s="624"/>
+      <c r="C31" s="624"/>
+      <c r="D31" s="624"/>
+      <c r="E31" s="624"/>
+      <c r="F31" s="624"/>
+      <c r="G31" s="624"/>
+      <c r="H31" s="624"/>
+      <c r="I31" s="624"/>
+      <c r="J31" s="624"/>
+      <c r="K31" s="624"/>
+      <c r="L31" s="625"/>
       <c r="M31" s="313"/>
       <c r="N31" s="313"/>
     </row>
@@ -47007,6 +49291,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A17:L17"/>
     <mergeCell ref="A31:L31"/>
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="M1:M2"/>
@@ -47023,10 +49311,6 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -47034,7 +49318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L139"/>
   <sheetViews>
@@ -50164,7 +52448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L106"/>
   <sheetViews>
@@ -50184,56 +52468,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="625" t="s">
+      <c r="A1" s="638" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="625" t="s">
+      <c r="B1" s="638" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="625" t="s">
+      <c r="C1" s="638" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="627" t="s">
+      <c r="D1" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="627" t="s">
+      <c r="E1" s="640" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="625" t="s">
+      <c r="F1" s="638" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="625" t="s">
+      <c r="G1" s="638" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="625" t="s">
+      <c r="H1" s="638" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="625" t="s">
+      <c r="I1" s="638" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="625" t="s">
+      <c r="J1" s="638" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="623" t="s">
+      <c r="K1" s="636" t="s">
         <v>666</v>
       </c>
-      <c r="L1" s="623" t="s">
+      <c r="L1" s="636" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="626"/>
-      <c r="B2" s="624"/>
-      <c r="C2" s="624"/>
-      <c r="D2" s="628"/>
-      <c r="E2" s="628"/>
-      <c r="F2" s="624"/>
-      <c r="G2" s="624"/>
-      <c r="H2" s="624"/>
-      <c r="I2" s="624"/>
-      <c r="J2" s="624"/>
-      <c r="K2" s="624"/>
-      <c r="L2" s="624"/>
+      <c r="A2" s="639"/>
+      <c r="B2" s="637"/>
+      <c r="C2" s="637"/>
+      <c r="D2" s="641"/>
+      <c r="E2" s="641"/>
+      <c r="F2" s="637"/>
+      <c r="G2" s="637"/>
+      <c r="H2" s="637"/>
+      <c r="I2" s="637"/>
+      <c r="J2" s="637"/>
+      <c r="K2" s="637"/>
+      <c r="L2" s="637"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="388" t="s">
@@ -52618,10 +54902,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="595" t="s">
+      <c r="A1" s="572" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="595"/>
+      <c r="B1" s="572"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -52656,250 +54940,250 @@
       <c r="AH1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="596" t="s">
+      <c r="A2" s="573" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="596" t="s">
+      <c r="B2" s="573" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="596" t="s">
+      <c r="C2" s="573" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="599" t="s">
+      <c r="D2" s="576" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="599"/>
-      <c r="F2" s="599"/>
-      <c r="G2" s="565" t="s">
+      <c r="E2" s="576"/>
+      <c r="F2" s="576"/>
+      <c r="G2" s="585" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="566"/>
-      <c r="I2" s="566"/>
-      <c r="J2" s="571"/>
-      <c r="K2" s="559" t="s">
+      <c r="H2" s="586"/>
+      <c r="I2" s="586"/>
+      <c r="J2" s="587"/>
+      <c r="K2" s="603" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="559"/>
-      <c r="M2" s="565" t="s">
+      <c r="L2" s="603"/>
+      <c r="M2" s="585" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="566"/>
-      <c r="O2" s="571"/>
-      <c r="P2" s="565" t="s">
+      <c r="N2" s="586"/>
+      <c r="O2" s="587"/>
+      <c r="P2" s="585" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="571"/>
-      <c r="R2" s="565" t="s">
+      <c r="Q2" s="587"/>
+      <c r="R2" s="585" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="566"/>
-      <c r="T2" s="565" t="s">
+      <c r="S2" s="586"/>
+      <c r="T2" s="585" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="566"/>
-      <c r="V2" s="566"/>
-      <c r="W2" s="566"/>
-      <c r="X2" s="571"/>
-      <c r="Y2" s="565" t="s">
+      <c r="U2" s="586"/>
+      <c r="V2" s="586"/>
+      <c r="W2" s="586"/>
+      <c r="X2" s="587"/>
+      <c r="Y2" s="585" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="566"/>
-      <c r="AA2" s="566"/>
-      <c r="AB2" s="571"/>
-      <c r="AC2" s="580" t="s">
+      <c r="Z2" s="586"/>
+      <c r="AA2" s="586"/>
+      <c r="AB2" s="587"/>
+      <c r="AC2" s="579" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="581"/>
-      <c r="AE2" s="581"/>
-      <c r="AF2" s="590"/>
-      <c r="AG2" s="580" t="s">
+      <c r="AD2" s="580"/>
+      <c r="AE2" s="580"/>
+      <c r="AF2" s="595"/>
+      <c r="AG2" s="579" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="581"/>
-      <c r="AI2" s="581"/>
+      <c r="AH2" s="580"/>
+      <c r="AI2" s="580"/>
     </row>
     <row r="3" spans="1:35" s="43" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="597"/>
-      <c r="B3" s="597"/>
-      <c r="C3" s="597"/>
-      <c r="D3" s="599"/>
-      <c r="E3" s="599"/>
-      <c r="F3" s="599"/>
-      <c r="G3" s="567"/>
-      <c r="H3" s="568"/>
-      <c r="I3" s="568"/>
-      <c r="J3" s="572"/>
-      <c r="K3" s="559" t="s">
+      <c r="A3" s="574"/>
+      <c r="B3" s="574"/>
+      <c r="C3" s="574"/>
+      <c r="D3" s="576"/>
+      <c r="E3" s="576"/>
+      <c r="F3" s="576"/>
+      <c r="G3" s="581"/>
+      <c r="H3" s="582"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="588"/>
+      <c r="K3" s="603" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="559"/>
-      <c r="M3" s="567"/>
-      <c r="N3" s="568"/>
-      <c r="O3" s="572"/>
-      <c r="P3" s="567"/>
-      <c r="Q3" s="572"/>
-      <c r="R3" s="567"/>
-      <c r="S3" s="568"/>
-      <c r="T3" s="567"/>
-      <c r="U3" s="568"/>
-      <c r="V3" s="568"/>
-      <c r="W3" s="568"/>
-      <c r="X3" s="572"/>
-      <c r="Y3" s="567"/>
-      <c r="Z3" s="568"/>
-      <c r="AA3" s="568"/>
-      <c r="AB3" s="572"/>
-      <c r="AC3" s="567"/>
-      <c r="AD3" s="568"/>
-      <c r="AE3" s="568"/>
-      <c r="AF3" s="572"/>
-      <c r="AG3" s="567"/>
-      <c r="AH3" s="568"/>
-      <c r="AI3" s="568"/>
+      <c r="L3" s="603"/>
+      <c r="M3" s="581"/>
+      <c r="N3" s="582"/>
+      <c r="O3" s="588"/>
+      <c r="P3" s="581"/>
+      <c r="Q3" s="588"/>
+      <c r="R3" s="581"/>
+      <c r="S3" s="582"/>
+      <c r="T3" s="581"/>
+      <c r="U3" s="582"/>
+      <c r="V3" s="582"/>
+      <c r="W3" s="582"/>
+      <c r="X3" s="588"/>
+      <c r="Y3" s="581"/>
+      <c r="Z3" s="582"/>
+      <c r="AA3" s="582"/>
+      <c r="AB3" s="588"/>
+      <c r="AC3" s="581"/>
+      <c r="AD3" s="582"/>
+      <c r="AE3" s="582"/>
+      <c r="AF3" s="588"/>
+      <c r="AG3" s="581"/>
+      <c r="AH3" s="582"/>
+      <c r="AI3" s="582"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="597"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="578" t="s">
+      <c r="A4" s="574"/>
+      <c r="B4" s="574"/>
+      <c r="C4" s="574"/>
+      <c r="D4" s="577" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="578" t="s">
+      <c r="E4" s="577" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="578" t="s">
+      <c r="F4" s="577" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="576" t="s">
+      <c r="G4" s="601" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="576" t="s">
+      <c r="H4" s="601" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="576" t="s">
+      <c r="I4" s="601" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="576" t="s">
+      <c r="J4" s="601" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="560" t="s">
+      <c r="K4" s="604" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="560" t="s">
+      <c r="L4" s="604" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="562" t="s">
+      <c r="M4" s="606" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="562" t="s">
+      <c r="N4" s="606" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="573" t="s">
+      <c r="O4" s="610" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="574" t="s">
+      <c r="P4" s="611" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="574" t="s">
+      <c r="Q4" s="611" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="569" t="s">
+      <c r="R4" s="608" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="569" t="s">
+      <c r="S4" s="608" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="582" t="s">
+      <c r="T4" s="583" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="593" t="s">
+      <c r="U4" s="599" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="594"/>
-      <c r="W4" s="564" t="s">
+      <c r="V4" s="600"/>
+      <c r="W4" s="598" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="564" t="s">
+      <c r="X4" s="598" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="584" t="s">
+      <c r="Y4" s="589" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="584" t="s">
+      <c r="Z4" s="589" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="588" t="s">
+      <c r="AA4" s="593" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="589"/>
-      <c r="AC4" s="586" t="s">
+      <c r="AB4" s="594"/>
+      <c r="AC4" s="591" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="586" t="s">
+      <c r="AD4" s="591" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="591" t="s">
+      <c r="AE4" s="596" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="592"/>
-      <c r="AG4" s="578" t="s">
+      <c r="AF4" s="597"/>
+      <c r="AG4" s="577" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="578" t="s">
+      <c r="AH4" s="577" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="578" t="s">
+      <c r="AI4" s="577" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="598"/>
-      <c r="B5" s="598"/>
-      <c r="C5" s="598"/>
-      <c r="D5" s="579"/>
-      <c r="E5" s="579"/>
-      <c r="F5" s="579"/>
-      <c r="G5" s="577"/>
-      <c r="H5" s="577"/>
-      <c r="I5" s="577"/>
-      <c r="J5" s="577"/>
-      <c r="K5" s="561"/>
-      <c r="L5" s="561"/>
-      <c r="M5" s="563"/>
-      <c r="N5" s="563"/>
-      <c r="O5" s="563"/>
-      <c r="P5" s="575"/>
-      <c r="Q5" s="575"/>
-      <c r="R5" s="570"/>
-      <c r="S5" s="570"/>
-      <c r="T5" s="583"/>
+      <c r="A5" s="575"/>
+      <c r="B5" s="575"/>
+      <c r="C5" s="575"/>
+      <c r="D5" s="578"/>
+      <c r="E5" s="578"/>
+      <c r="F5" s="578"/>
+      <c r="G5" s="602"/>
+      <c r="H5" s="602"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="602"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="605"/>
+      <c r="M5" s="607"/>
+      <c r="N5" s="607"/>
+      <c r="O5" s="607"/>
+      <c r="P5" s="612"/>
+      <c r="Q5" s="612"/>
+      <c r="R5" s="609"/>
+      <c r="S5" s="609"/>
+      <c r="T5" s="584"/>
       <c r="U5" s="60" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="564"/>
-      <c r="X5" s="564"/>
-      <c r="Y5" s="585"/>
-      <c r="Z5" s="585"/>
+      <c r="W5" s="598"/>
+      <c r="X5" s="598"/>
+      <c r="Y5" s="590"/>
+      <c r="Z5" s="590"/>
       <c r="AA5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="AB5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="587"/>
-      <c r="AD5" s="587"/>
+      <c r="AC5" s="592"/>
+      <c r="AD5" s="592"/>
       <c r="AE5" s="53" t="s">
         <v>52</v>
       </c>
       <c r="AF5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="579"/>
-      <c r="AH5" s="579"/>
-      <c r="AI5" s="579"/>
+      <c r="AG5" s="578"/>
+      <c r="AH5" s="578"/>
+      <c r="AI5" s="578"/>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
@@ -53162,14 +55446,26 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="T4:T5"/>
@@ -53186,26 +55482,14 @@
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -53258,7 +55542,7 @@
     </row>
     <row r="2" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64"/>
-      <c r="B2" s="601" t="s">
+      <c r="B2" s="617" t="s">
         <v>138</v>
       </c>
       <c r="C2" s="71" t="s">
@@ -53271,7 +55555,7 @@
     </row>
     <row r="3" spans="1:8" s="65" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A3" s="64"/>
-      <c r="B3" s="602"/>
+      <c r="B3" s="618"/>
       <c r="C3" s="71" t="s">
         <v>144</v>
       </c>
@@ -53282,7 +55566,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="66"/>
-      <c r="B4" s="603" t="s">
+      <c r="B4" s="613" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="70" t="s">
@@ -53295,7 +55579,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
-      <c r="B5" s="604"/>
+      <c r="B5" s="614"/>
       <c r="C5" s="70" t="s">
         <v>141</v>
       </c>
@@ -53306,7 +55590,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="66"/>
-      <c r="B6" s="604"/>
+      <c r="B6" s="614"/>
       <c r="C6" s="70" t="s">
         <v>140</v>
       </c>
@@ -53317,7 +55601,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="66"/>
-      <c r="B7" s="604"/>
+      <c r="B7" s="614"/>
       <c r="C7" s="70" t="s">
         <v>142</v>
       </c>
@@ -53328,7 +55612,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="66"/>
-      <c r="B8" s="605"/>
+      <c r="B8" s="615"/>
       <c r="C8" s="70" t="s">
         <v>145</v>
       </c>
@@ -53339,7 +55623,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="66"/>
-      <c r="B9" s="603" t="s">
+      <c r="B9" s="613" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="67" t="s">
@@ -53352,8 +55636,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="66"/>
-      <c r="B10" s="604"/>
-      <c r="C10" s="603" t="s">
+      <c r="B10" s="614"/>
+      <c r="C10" s="613" t="s">
         <v>146</v>
       </c>
       <c r="D10" s="69" t="s">
@@ -53365,8 +55649,8 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="66"/>
-      <c r="B11" s="604"/>
-      <c r="C11" s="605"/>
+      <c r="B11" s="614"/>
+      <c r="C11" s="615"/>
       <c r="D11" s="69" t="s">
         <v>148</v>
       </c>
@@ -53376,8 +55660,8 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="66"/>
-      <c r="B12" s="604"/>
-      <c r="C12" s="603" t="s">
+      <c r="B12" s="614"/>
+      <c r="C12" s="613" t="s">
         <v>91</v>
       </c>
       <c r="D12" s="69" t="s">
@@ -53391,9 +55675,9 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="66"/>
-      <c r="B13" s="604"/>
-      <c r="C13" s="604"/>
-      <c r="D13" s="603" t="s">
+      <c r="B13" s="614"/>
+      <c r="C13" s="614"/>
+      <c r="D13" s="613" t="s">
         <v>116</v>
       </c>
       <c r="E13" s="66" t="s">
@@ -53404,9 +55688,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="66"/>
-      <c r="B14" s="604"/>
-      <c r="C14" s="604"/>
-      <c r="D14" s="604"/>
+      <c r="B14" s="614"/>
+      <c r="C14" s="614"/>
+      <c r="D14" s="614"/>
       <c r="E14" s="66" t="s">
         <v>120</v>
       </c>
@@ -53415,9 +55699,9 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="66"/>
-      <c r="B15" s="604"/>
-      <c r="C15" s="604"/>
-      <c r="D15" s="604"/>
+      <c r="B15" s="614"/>
+      <c r="C15" s="614"/>
+      <c r="D15" s="614"/>
       <c r="E15" s="66" t="s">
         <v>121</v>
       </c>
@@ -53426,9 +55710,9 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="66"/>
-      <c r="B16" s="604"/>
-      <c r="C16" s="604"/>
-      <c r="D16" s="604"/>
+      <c r="B16" s="614"/>
+      <c r="C16" s="614"/>
+      <c r="D16" s="614"/>
       <c r="E16" s="66" t="s">
         <v>122</v>
       </c>
@@ -53437,9 +55721,9 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="66"/>
-      <c r="B17" s="604"/>
-      <c r="C17" s="604"/>
-      <c r="D17" s="605"/>
+      <c r="B17" s="614"/>
+      <c r="C17" s="614"/>
+      <c r="D17" s="615"/>
       <c r="E17" s="66" t="s">
         <v>123</v>
       </c>
@@ -53448,8 +55732,8 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="66"/>
-      <c r="B18" s="604"/>
-      <c r="C18" s="604"/>
+      <c r="B18" s="614"/>
+      <c r="C18" s="614"/>
       <c r="D18" s="69" t="s">
         <v>117</v>
       </c>
@@ -53461,9 +55745,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="66"/>
-      <c r="B19" s="604"/>
-      <c r="C19" s="604"/>
-      <c r="D19" s="603" t="s">
+      <c r="B19" s="614"/>
+      <c r="C19" s="614"/>
+      <c r="D19" s="613" t="s">
         <v>118</v>
       </c>
       <c r="E19" s="66" t="s">
@@ -53474,9 +55758,9 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="66"/>
-      <c r="B20" s="604"/>
-      <c r="C20" s="605"/>
-      <c r="D20" s="605"/>
+      <c r="B20" s="614"/>
+      <c r="C20" s="615"/>
+      <c r="D20" s="615"/>
       <c r="E20" s="66" t="s">
         <v>123</v>
       </c>
@@ -53485,11 +55769,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="66"/>
-      <c r="B21" s="604"/>
-      <c r="C21" s="603" t="s">
+      <c r="B21" s="614"/>
+      <c r="C21" s="613" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="603" t="s">
+      <c r="D21" s="613" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="66" t="s">
@@ -53500,9 +55784,9 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="66"/>
-      <c r="B22" s="604"/>
-      <c r="C22" s="604"/>
-      <c r="D22" s="605"/>
+      <c r="B22" s="614"/>
+      <c r="C22" s="614"/>
+      <c r="D22" s="615"/>
       <c r="E22" s="66" t="s">
         <v>128</v>
       </c>
@@ -53511,9 +55795,9 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="66"/>
-      <c r="B23" s="604"/>
-      <c r="C23" s="604"/>
-      <c r="D23" s="603" t="s">
+      <c r="B23" s="614"/>
+      <c r="C23" s="614"/>
+      <c r="D23" s="613" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="66" t="s">
@@ -53524,9 +55808,9 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="66"/>
-      <c r="B24" s="604"/>
-      <c r="C24" s="604"/>
-      <c r="D24" s="604"/>
+      <c r="B24" s="614"/>
+      <c r="C24" s="614"/>
+      <c r="D24" s="614"/>
       <c r="E24" s="66" t="s">
         <v>130</v>
       </c>
@@ -53535,9 +55819,9 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="66"/>
-      <c r="B25" s="604"/>
-      <c r="C25" s="604"/>
-      <c r="D25" s="605"/>
+      <c r="B25" s="614"/>
+      <c r="C25" s="614"/>
+      <c r="D25" s="615"/>
       <c r="E25" s="66" t="s">
         <v>131</v>
       </c>
@@ -53546,8 +55830,8 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="66"/>
-      <c r="B26" s="604"/>
-      <c r="C26" s="605"/>
+      <c r="B26" s="614"/>
+      <c r="C26" s="615"/>
       <c r="D26" s="69" t="s">
         <v>116</v>
       </c>
@@ -53559,8 +55843,8 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="66"/>
-      <c r="B27" s="604"/>
-      <c r="C27" s="603" t="s">
+      <c r="B27" s="614"/>
+      <c r="C27" s="613" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="69" t="s">
@@ -53575,8 +55859,8 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="66"/>
-      <c r="B28" s="604"/>
-      <c r="C28" s="604"/>
+      <c r="B28" s="614"/>
+      <c r="C28" s="614"/>
       <c r="D28" s="69" t="s">
         <v>134</v>
       </c>
@@ -53589,8 +55873,8 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="66"/>
-      <c r="B29" s="604"/>
-      <c r="C29" s="605"/>
+      <c r="B29" s="614"/>
+      <c r="C29" s="615"/>
       <c r="D29" s="69" t="s">
         <v>135</v>
       </c>
@@ -53603,7 +55887,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="66"/>
-      <c r="B30" s="604"/>
+      <c r="B30" s="614"/>
       <c r="C30" s="69" t="s">
         <v>74</v>
       </c>
@@ -53614,7 +55898,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="66"/>
-      <c r="B31" s="604"/>
+      <c r="B31" s="614"/>
       <c r="C31" s="67" t="s">
         <v>95</v>
       </c>
@@ -53625,7 +55909,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="66"/>
-      <c r="B32" s="604"/>
+      <c r="B32" s="614"/>
       <c r="C32" s="69" t="s">
         <v>96</v>
       </c>
@@ -53636,8 +55920,8 @@
     </row>
     <row r="33" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="66"/>
-      <c r="B33" s="604"/>
-      <c r="C33" s="603" t="s">
+      <c r="B33" s="614"/>
+      <c r="C33" s="613" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="69" t="s">
@@ -53649,8 +55933,8 @@
     </row>
     <row r="34" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="66"/>
-      <c r="B34" s="604"/>
-      <c r="C34" s="605"/>
+      <c r="B34" s="614"/>
+      <c r="C34" s="615"/>
       <c r="D34" s="69" t="s">
         <v>151</v>
       </c>
@@ -53660,7 +55944,7 @@
     </row>
     <row r="35" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="66"/>
-      <c r="B35" s="605"/>
+      <c r="B35" s="615"/>
       <c r="C35" s="69" t="s">
         <v>98</v>
       </c>
@@ -53674,7 +55958,7 @@
     </row>
     <row r="36" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A36" s="66"/>
-      <c r="B36" s="603" t="s">
+      <c r="B36" s="613" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="67" t="s">
@@ -53687,7 +55971,7 @@
     </row>
     <row r="37" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A37" s="66"/>
-      <c r="B37" s="604"/>
+      <c r="B37" s="614"/>
       <c r="C37" s="69" t="s">
         <v>99</v>
       </c>
@@ -53698,7 +55982,7 @@
     </row>
     <row r="38" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A38" s="66"/>
-      <c r="B38" s="604"/>
+      <c r="B38" s="614"/>
       <c r="C38" s="69" t="s">
         <v>100</v>
       </c>
@@ -53709,7 +55993,7 @@
     </row>
     <row r="39" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A39" s="66"/>
-      <c r="B39" s="605"/>
+      <c r="B39" s="615"/>
       <c r="C39" s="69" t="s">
         <v>101</v>
       </c>
@@ -53723,7 +56007,7 @@
     </row>
     <row r="40" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A40" s="66"/>
-      <c r="B40" s="603" t="s">
+      <c r="B40" s="613" t="s">
         <v>88</v>
       </c>
       <c r="C40" s="67" t="s">
@@ -53736,8 +56020,8 @@
     </row>
     <row r="41" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A41" s="66"/>
-      <c r="B41" s="604"/>
-      <c r="C41" s="603" t="s">
+      <c r="B41" s="614"/>
+      <c r="C41" s="613" t="s">
         <v>102</v>
       </c>
       <c r="D41" s="69" t="s">
@@ -53749,8 +56033,8 @@
     </row>
     <row r="42" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A42" s="66"/>
-      <c r="B42" s="604"/>
-      <c r="C42" s="605"/>
+      <c r="B42" s="614"/>
+      <c r="C42" s="615"/>
       <c r="D42" s="69" t="s">
         <v>136</v>
       </c>
@@ -53760,7 +56044,7 @@
     </row>
     <row r="43" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A43" s="66"/>
-      <c r="B43" s="605"/>
+      <c r="B43" s="615"/>
       <c r="C43" s="69" t="s">
         <v>103</v>
       </c>
@@ -53771,7 +56055,7 @@
     </row>
     <row r="44" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A44" s="66"/>
-      <c r="B44" s="603" t="s">
+      <c r="B44" s="613" t="s">
         <v>89</v>
       </c>
       <c r="C44" s="67" t="s">
@@ -53785,7 +56069,7 @@
     </row>
     <row r="45" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A45" s="66"/>
-      <c r="B45" s="604"/>
+      <c r="B45" s="614"/>
       <c r="C45" s="69" t="s">
         <v>104</v>
       </c>
@@ -53796,7 +56080,7 @@
     </row>
     <row r="46" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A46" s="66"/>
-      <c r="B46" s="604"/>
+      <c r="B46" s="614"/>
       <c r="C46" s="69" t="s">
         <v>105</v>
       </c>
@@ -53807,7 +56091,7 @@
     </row>
     <row r="47" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A47" s="66"/>
-      <c r="B47" s="604"/>
+      <c r="B47" s="614"/>
       <c r="C47" s="69" t="s">
         <v>106</v>
       </c>
@@ -53818,7 +56102,7 @@
     </row>
     <row r="48" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A48" s="66"/>
-      <c r="B48" s="605"/>
+      <c r="B48" s="615"/>
       <c r="C48" s="69" t="s">
         <v>107</v>
       </c>
@@ -53876,10 +56160,10 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="66"/>
       <c r="B53" s="72"/>
-      <c r="C53" s="603" t="s">
+      <c r="C53" s="613" t="s">
         <v>158</v>
       </c>
-      <c r="D53" s="603" t="s">
+      <c r="D53" s="613" t="s">
         <v>164</v>
       </c>
       <c r="E53" s="66" t="s">
@@ -53891,8 +56175,8 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="66"/>
       <c r="B54" s="72"/>
-      <c r="C54" s="604"/>
-      <c r="D54" s="604"/>
+      <c r="C54" s="614"/>
+      <c r="D54" s="614"/>
       <c r="E54" s="66" t="s">
         <v>168</v>
       </c>
@@ -53902,8 +56186,8 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="66"/>
       <c r="B55" s="72"/>
-      <c r="C55" s="604"/>
-      <c r="D55" s="605"/>
+      <c r="C55" s="614"/>
+      <c r="D55" s="615"/>
       <c r="E55" s="66" t="s">
         <v>169</v>
       </c>
@@ -53913,11 +56197,11 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="66"/>
       <c r="B56" s="72"/>
-      <c r="C56" s="604"/>
-      <c r="D56" s="603" t="s">
+      <c r="C56" s="614"/>
+      <c r="D56" s="613" t="s">
         <v>165</v>
       </c>
-      <c r="E56" s="603" t="s">
+      <c r="E56" s="613" t="s">
         <v>170</v>
       </c>
       <c r="F56" s="66" t="s">
@@ -53928,9 +56212,9 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="66"/>
       <c r="B57" s="72"/>
-      <c r="C57" s="604"/>
-      <c r="D57" s="604"/>
-      <c r="E57" s="604"/>
+      <c r="C57" s="614"/>
+      <c r="D57" s="614"/>
+      <c r="E57" s="614"/>
       <c r="F57" s="66" t="s">
         <v>172</v>
       </c>
@@ -53939,9 +56223,9 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="66"/>
       <c r="B58" s="72"/>
-      <c r="C58" s="604"/>
-      <c r="D58" s="604"/>
-      <c r="E58" s="605"/>
+      <c r="C58" s="614"/>
+      <c r="D58" s="614"/>
+      <c r="E58" s="615"/>
       <c r="F58" s="66" t="s">
         <v>169</v>
       </c>
@@ -53950,9 +56234,9 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="66"/>
       <c r="B59" s="72"/>
-      <c r="C59" s="604"/>
-      <c r="D59" s="604"/>
-      <c r="E59" s="603" t="s">
+      <c r="C59" s="614"/>
+      <c r="D59" s="614"/>
+      <c r="E59" s="613" t="s">
         <v>128</v>
       </c>
       <c r="F59" s="66" t="s">
@@ -53963,9 +56247,9 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="66"/>
       <c r="B60" s="72"/>
-      <c r="C60" s="604"/>
-      <c r="D60" s="605"/>
-      <c r="E60" s="605"/>
+      <c r="C60" s="614"/>
+      <c r="D60" s="615"/>
+      <c r="E60" s="615"/>
       <c r="F60" s="66" t="s">
         <v>174</v>
       </c>
@@ -53974,8 +56258,8 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="66"/>
       <c r="B61" s="72"/>
-      <c r="C61" s="604"/>
-      <c r="D61" s="603" t="s">
+      <c r="C61" s="614"/>
+      <c r="D61" s="613" t="s">
         <v>166</v>
       </c>
       <c r="E61" s="66" t="s">
@@ -53987,8 +56271,8 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="66"/>
       <c r="B62" s="72"/>
-      <c r="C62" s="604"/>
-      <c r="D62" s="604"/>
+      <c r="C62" s="614"/>
+      <c r="D62" s="614"/>
       <c r="E62" s="66" t="s">
         <v>176</v>
       </c>
@@ -53998,8 +56282,8 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="66"/>
       <c r="B63" s="72"/>
-      <c r="C63" s="605"/>
-      <c r="D63" s="605"/>
+      <c r="C63" s="615"/>
+      <c r="D63" s="615"/>
       <c r="E63" s="66" t="s">
         <v>177</v>
       </c>
@@ -54012,7 +56296,7 @@
       <c r="C64" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="603" t="s">
+      <c r="D64" s="613" t="s">
         <v>178</v>
       </c>
       <c r="E64" s="66" t="s">
@@ -54025,7 +56309,7 @@
       <c r="A65" s="66"/>
       <c r="B65" s="72"/>
       <c r="C65" s="69"/>
-      <c r="D65" s="605"/>
+      <c r="D65" s="615"/>
       <c r="E65" s="66" t="s">
         <v>180</v>
       </c>
@@ -54111,7 +56395,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="66"/>
-      <c r="B73" s="600" t="s">
+      <c r="B73" s="616" t="s">
         <v>76</v>
       </c>
       <c r="C73" s="67" t="s">
@@ -54124,7 +56408,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="66"/>
-      <c r="B74" s="600"/>
+      <c r="B74" s="616"/>
       <c r="C74" s="69" t="s">
         <v>109</v>
       </c>
@@ -54135,7 +56419,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="66"/>
-      <c r="B75" s="600"/>
+      <c r="B75" s="616"/>
       <c r="C75" s="69" t="s">
         <v>110</v>
       </c>
@@ -54146,7 +56430,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="66"/>
-      <c r="B76" s="600"/>
+      <c r="B76" s="616"/>
       <c r="C76" s="69" t="s">
         <v>111</v>
       </c>
@@ -54157,7 +56441,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="66"/>
-      <c r="B77" s="600"/>
+      <c r="B77" s="616"/>
       <c r="C77" s="69" t="s">
         <v>112</v>
       </c>
@@ -54168,7 +56452,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="66"/>
-      <c r="B78" s="600"/>
+      <c r="B78" s="616"/>
       <c r="C78" s="69" t="s">
         <v>113</v>
       </c>
@@ -54179,7 +56463,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="66"/>
-      <c r="B79" s="600"/>
+      <c r="B79" s="616"/>
       <c r="C79" s="69" t="s">
         <v>114</v>
       </c>
@@ -54190,7 +56474,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="66"/>
-      <c r="B80" s="600"/>
+      <c r="B80" s="616"/>
       <c r="C80" s="69" t="s">
         <v>115</v>
       </c>
@@ -54212,18 +56496,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C21:C26"/>
     <mergeCell ref="B73:B80"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C27:C29"/>
@@ -54236,6 +56508,18 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C53:C63"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D56:D60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -55513,7 +57797,7 @@
       <c r="D36" s="211" t="s">
         <v>629</v>
       </c>
-      <c r="E36" s="606" t="s">
+      <c r="E36" s="619" t="s">
         <v>630</v>
       </c>
       <c r="F36" s="223"/>
@@ -55538,7 +57822,7 @@
       <c r="D37" s="211" t="s">
         <v>631</v>
       </c>
-      <c r="E37" s="607"/>
+      <c r="E37" s="620"/>
       <c r="F37" s="223"/>
       <c r="G37" s="223"/>
       <c r="H37" s="223"/>
@@ -70165,1727 +72449,484 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L86"/>
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24" style="79" customWidth="1"/>
-    <col min="2" max="2" width="31" style="201" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="201" customWidth="1"/>
-    <col min="4" max="4" width="60.75" style="201" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="79" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="83" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="83" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="83" customWidth="1"/>
-    <col min="9" max="10" width="16.125" style="83" customWidth="1"/>
-    <col min="11" max="11" width="65.25" style="84" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="14.125" style="79"/>
+    <col min="1" max="1" width="23.375" style="98" customWidth="1"/>
+    <col min="2" max="2" width="64.125" style="98" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="98" customWidth="1"/>
+    <col min="4" max="5" width="41.875" style="98" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="147" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="86" t="s">
+      <c r="B1" s="170"/>
+      <c r="C1" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="146" t="s">
+      <c r="E1" s="169" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="169" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="169" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="169" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="169" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="169" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="178" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="205" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="200"/>
-    </row>
-    <row r="4" spans="1:11" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="177" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B4" s="181" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D4" s="176" t="s">
-        <v>779</v>
-      </c>
-      <c r="E4" s="184"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209"/>
-      <c r="K4" s="222"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="177" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B5" s="183" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D5" s="183" t="s">
-        <v>478</v>
-      </c>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="176"/>
-      <c r="H5" s="213"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="213"/>
-      <c r="K5" s="222"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="205" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" s="205"/>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="200"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="177" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B7" s="182" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D7" s="183" t="s">
-        <v>479</v>
-      </c>
-      <c r="E7" s="182"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="216"/>
-      <c r="I7" s="216"/>
-      <c r="J7" s="216"/>
-      <c r="K7" s="222"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="177" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B8" s="183" t="s">
-        <v>480</v>
-      </c>
-      <c r="C8" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D8" s="183" t="s">
-        <v>481</v>
-      </c>
-      <c r="E8" s="182"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="215"/>
-      <c r="H8" s="216"/>
-      <c r="I8" s="216"/>
-      <c r="J8" s="216"/>
-      <c r="K8" s="222"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="177" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B9" s="183" t="s">
-        <v>482</v>
-      </c>
-      <c r="C9" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D9" s="183" t="s">
-        <v>495</v>
-      </c>
-      <c r="E9" s="182"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="215"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="216"/>
-      <c r="K9" s="222"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="177" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B10" s="183" t="s">
-        <v>483</v>
-      </c>
-      <c r="C10" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D10" s="183" t="s">
-        <v>496</v>
-      </c>
-      <c r="E10" s="182"/>
-      <c r="F10" s="213"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="216"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="216"/>
-      <c r="K10" s="222"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="177" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B11" s="183" t="s">
-        <v>484</v>
-      </c>
-      <c r="C11" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D11" s="183" t="s">
-        <v>497</v>
-      </c>
-      <c r="E11" s="182"/>
-      <c r="F11" s="213"/>
-      <c r="G11" s="213"/>
-      <c r="H11" s="213"/>
-      <c r="I11" s="213"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="222"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="177" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B12" s="183" t="s">
-        <v>485</v>
-      </c>
-      <c r="C12" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D12" s="183" t="s">
-        <v>498</v>
-      </c>
-      <c r="E12" s="182"/>
-      <c r="F12" s="213"/>
-      <c r="G12" s="213"/>
-      <c r="H12" s="223"/>
-      <c r="I12" s="223"/>
-      <c r="J12" s="223"/>
-      <c r="K12" s="222"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="177" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B13" s="183" t="s">
-        <v>486</v>
-      </c>
-      <c r="C13" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D13" s="183" t="s">
-        <v>539</v>
-      </c>
-      <c r="E13" s="182"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="223"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="223"/>
-      <c r="K13" s="222"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="177" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B14" s="183" t="s">
-        <v>487</v>
-      </c>
-      <c r="C14" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D14" s="183" t="s">
-        <v>540</v>
-      </c>
-      <c r="E14" s="182"/>
-      <c r="F14" s="213"/>
-      <c r="G14" s="213"/>
-      <c r="H14" s="223"/>
-      <c r="I14" s="223"/>
-      <c r="J14" s="223"/>
-      <c r="K14" s="222"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="177" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B15" s="182" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D15" s="183" t="s">
-        <v>499</v>
-      </c>
-      <c r="E15" s="182"/>
-      <c r="F15" s="213"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="223"/>
-      <c r="I15" s="223"/>
-      <c r="J15" s="223"/>
-      <c r="K15" s="222"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="177" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B16" s="183" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D16" s="183" t="s">
-        <v>500</v>
-      </c>
-      <c r="E16" s="182"/>
-      <c r="F16" s="213"/>
-      <c r="G16" s="213"/>
-      <c r="H16" s="223"/>
-      <c r="I16" s="223"/>
-      <c r="J16" s="223"/>
-      <c r="K16" s="222"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="177" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B17" s="183" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D17" s="183" t="s">
-        <v>501</v>
-      </c>
-      <c r="E17" s="182"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="223"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="222"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="177" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B18" s="191" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D18" s="191" t="s">
-        <v>502</v>
-      </c>
-      <c r="E18" s="182"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="223"/>
-      <c r="I18" s="223"/>
-      <c r="J18" s="223"/>
-      <c r="K18" s="222"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="177" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B19" s="183" t="s">
-        <v>361</v>
-      </c>
-      <c r="C19" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D19" s="183" t="s">
-        <v>503</v>
-      </c>
-      <c r="E19" s="182"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="223"/>
-      <c r="I19" s="223"/>
-      <c r="J19" s="223"/>
-      <c r="K19" s="222"/>
-    </row>
-    <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="177" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B20" s="183" t="s">
-        <v>362</v>
-      </c>
-      <c r="C20" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D20" s="183" t="s">
-        <v>504</v>
-      </c>
-      <c r="E20" s="182"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="213"/>
-      <c r="K20" s="222"/>
-    </row>
-    <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="177" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B21" s="183" t="s">
-        <v>363</v>
-      </c>
-      <c r="C21" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D21" s="183" t="s">
-        <v>505</v>
-      </c>
-      <c r="E21" s="182"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="223"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="223"/>
-      <c r="K21" s="222"/>
-    </row>
-    <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="177" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B22" s="182" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D22" s="183" t="s">
-        <v>506</v>
-      </c>
-      <c r="E22" s="182"/>
-      <c r="F22" s="213"/>
-      <c r="G22" s="213"/>
-      <c r="H22" s="223"/>
-      <c r="I22" s="223"/>
-      <c r="J22" s="223"/>
-      <c r="K22" s="222"/>
-    </row>
-    <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="177" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B23" s="183" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D23" s="183" t="s">
-        <v>507</v>
-      </c>
-      <c r="E23" s="182"/>
-      <c r="F23" s="213"/>
-      <c r="G23" s="213"/>
-      <c r="H23" s="213"/>
-      <c r="I23" s="213"/>
-      <c r="J23" s="213"/>
-      <c r="K23" s="222"/>
-    </row>
-    <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="177" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B24" s="183" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D24" s="183" t="s">
-        <v>508</v>
-      </c>
-      <c r="E24" s="182"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="213"/>
-      <c r="K24" s="222"/>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="177" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B25" s="183" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D25" s="183" t="s">
-        <v>509</v>
-      </c>
-      <c r="E25" s="182"/>
-      <c r="F25" s="213"/>
-      <c r="G25" s="213"/>
-      <c r="H25" s="213"/>
-      <c r="I25" s="213"/>
-      <c r="J25" s="213"/>
-      <c r="K25" s="222"/>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="177" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B26" s="183" t="s">
-        <v>199</v>
-      </c>
-      <c r="C26" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D26" s="183" t="s">
-        <v>510</v>
-      </c>
-      <c r="E26" s="182"/>
-      <c r="F26" s="213"/>
-      <c r="G26" s="213"/>
-      <c r="H26" s="223"/>
-      <c r="I26" s="223"/>
-      <c r="J26" s="223"/>
-      <c r="K26" s="222"/>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="177" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B27" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="C27" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D27" s="183" t="s">
-        <v>511</v>
-      </c>
-      <c r="E27" s="182"/>
-      <c r="F27" s="213"/>
-      <c r="G27" s="213"/>
-      <c r="H27" s="213"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="213"/>
-      <c r="K27" s="222"/>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="177" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B28" s="183" t="s">
-        <v>201</v>
-      </c>
-      <c r="C28" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D28" s="183" t="s">
-        <v>512</v>
-      </c>
-      <c r="E28" s="182"/>
-      <c r="F28" s="213"/>
-      <c r="G28" s="213"/>
-      <c r="H28" s="223"/>
-      <c r="I28" s="223"/>
-      <c r="J28" s="223"/>
-      <c r="K28" s="222"/>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="177" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B29" s="183" t="s">
-        <v>202</v>
-      </c>
-      <c r="C29" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D29" s="183" t="s">
-        <v>513</v>
-      </c>
-      <c r="E29" s="182"/>
-      <c r="F29" s="213"/>
-      <c r="G29" s="213"/>
-      <c r="H29" s="223"/>
-      <c r="I29" s="223"/>
-      <c r="J29" s="223"/>
-      <c r="K29" s="222"/>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="177" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B30" s="183" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D30" s="183" t="s">
-        <v>514</v>
-      </c>
-      <c r="E30" s="182"/>
-      <c r="F30" s="213"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="223"/>
-      <c r="I30" s="223"/>
-      <c r="J30" s="223"/>
-      <c r="K30" s="222"/>
-    </row>
-    <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="177" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B31" s="183" t="s">
-        <v>204</v>
-      </c>
-      <c r="C31" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D31" s="183" t="s">
-        <v>515</v>
-      </c>
-      <c r="E31" s="182"/>
-      <c r="F31" s="213"/>
-      <c r="G31" s="213"/>
-      <c r="H31" s="223"/>
-      <c r="I31" s="223"/>
-      <c r="J31" s="223"/>
-      <c r="K31" s="222"/>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="177" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B32" s="182" t="s">
-        <v>205</v>
-      </c>
-      <c r="C32" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D32" s="183" t="s">
-        <v>516</v>
-      </c>
-      <c r="E32" s="182"/>
-      <c r="F32" s="213"/>
-      <c r="G32" s="213"/>
-      <c r="H32" s="223"/>
-      <c r="I32" s="223"/>
-      <c r="J32" s="223"/>
-      <c r="K32" s="222"/>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="177" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B33" s="183" t="s">
-        <v>370</v>
-      </c>
-      <c r="C33" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D33" s="183" t="s">
-        <v>541</v>
-      </c>
-      <c r="E33" s="182"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="223"/>
-      <c r="I33" s="223"/>
-      <c r="J33" s="223"/>
-      <c r="K33" s="222"/>
-    </row>
-    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="177" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B34" s="183" t="s">
-        <v>371</v>
-      </c>
-      <c r="C34" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D34" s="183" t="s">
-        <v>542</v>
-      </c>
-      <c r="E34" s="182"/>
-      <c r="F34" s="213"/>
-      <c r="G34" s="213"/>
-      <c r="H34" s="223"/>
-      <c r="I34" s="223"/>
-      <c r="J34" s="223"/>
-      <c r="K34" s="222"/>
-    </row>
-    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="177" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B35" s="183" t="s">
-        <v>372</v>
-      </c>
-      <c r="C35" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D35" s="183" t="s">
-        <v>543</v>
-      </c>
-      <c r="E35" s="182"/>
-      <c r="F35" s="213"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="223"/>
-      <c r="I35" s="223"/>
-      <c r="J35" s="223"/>
-      <c r="K35" s="222"/>
-    </row>
-    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="177" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B36" s="182" t="s">
-        <v>209</v>
-      </c>
-      <c r="C36" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D36" s="183" t="s">
-        <v>517</v>
-      </c>
-      <c r="E36" s="182"/>
-      <c r="F36" s="213"/>
-      <c r="G36" s="213"/>
-      <c r="H36" s="223"/>
-      <c r="I36" s="223"/>
-      <c r="J36" s="223"/>
-      <c r="K36" s="222"/>
-    </row>
-    <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="177" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B37" s="183" t="s">
-        <v>212</v>
-      </c>
-      <c r="C37" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D37" s="183" t="s">
-        <v>518</v>
-      </c>
-      <c r="E37" s="182"/>
-      <c r="F37" s="213"/>
-      <c r="G37" s="213"/>
-      <c r="H37" s="223"/>
-      <c r="I37" s="223"/>
-      <c r="J37" s="223"/>
-      <c r="K37" s="222"/>
-    </row>
-    <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="177" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B38" s="183" t="s">
-        <v>210</v>
-      </c>
-      <c r="C38" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D38" s="183" t="s">
-        <v>519</v>
-      </c>
-      <c r="E38" s="182"/>
-      <c r="F38" s="213"/>
-      <c r="G38" s="213"/>
-      <c r="H38" s="213"/>
-      <c r="I38" s="213"/>
-      <c r="J38" s="213"/>
-      <c r="K38" s="222"/>
-    </row>
-    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="177" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B39" s="183" t="s">
-        <v>211</v>
-      </c>
-      <c r="C39" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D39" s="183" t="s">
-        <v>520</v>
-      </c>
-      <c r="E39" s="182"/>
-      <c r="F39" s="213"/>
-      <c r="G39" s="213"/>
-      <c r="H39" s="213"/>
-      <c r="I39" s="213"/>
-      <c r="J39" s="213"/>
-      <c r="K39" s="222"/>
-    </row>
-    <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B40" s="183" t="s">
-        <v>213</v>
-      </c>
-      <c r="C40" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D40" s="183" t="s">
-        <v>521</v>
-      </c>
-      <c r="E40" s="182"/>
-      <c r="F40" s="213"/>
-      <c r="G40" s="213"/>
-      <c r="H40" s="223"/>
-      <c r="I40" s="223"/>
-      <c r="J40" s="223"/>
-      <c r="K40" s="222"/>
-    </row>
-    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="177" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B41" s="183" t="s">
-        <v>214</v>
-      </c>
-      <c r="C41" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D41" s="183" t="s">
-        <v>522</v>
-      </c>
-      <c r="E41" s="182"/>
-      <c r="F41" s="213"/>
-      <c r="G41" s="215"/>
-      <c r="H41" s="216"/>
-      <c r="I41" s="216"/>
-      <c r="J41" s="216"/>
-      <c r="K41" s="222"/>
-    </row>
-    <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="177" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B42" s="183" t="s">
-        <v>231</v>
-      </c>
-      <c r="C42" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D42" s="183" t="s">
-        <v>549</v>
-      </c>
-      <c r="E42" s="182"/>
-      <c r="F42" s="213"/>
-      <c r="G42" s="213"/>
-      <c r="H42" s="213"/>
-      <c r="I42" s="213"/>
-      <c r="J42" s="213"/>
-      <c r="K42" s="222"/>
-    </row>
-    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="177" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B43" s="183" t="s">
-        <v>232</v>
-      </c>
-      <c r="C43" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D43" s="183" t="s">
-        <v>550</v>
-      </c>
-      <c r="E43" s="182"/>
-      <c r="F43" s="213"/>
-      <c r="G43" s="213"/>
-      <c r="H43" s="213"/>
-      <c r="I43" s="213"/>
-      <c r="J43" s="213"/>
-      <c r="K43" s="222"/>
-    </row>
-    <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="177" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B44" s="183" t="s">
-        <v>233</v>
-      </c>
-      <c r="C44" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D44" s="183" t="s">
-        <v>551</v>
-      </c>
-      <c r="E44" s="182"/>
-      <c r="F44" s="213"/>
-      <c r="G44" s="213"/>
-      <c r="H44" s="213"/>
-      <c r="I44" s="213"/>
-      <c r="J44" s="213"/>
-      <c r="K44" s="222"/>
-    </row>
-    <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="177" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B45" s="183" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D45" s="183" t="s">
-        <v>552</v>
-      </c>
-      <c r="E45" s="182"/>
-      <c r="F45" s="209"/>
-      <c r="G45" s="209"/>
-      <c r="H45" s="209"/>
-      <c r="I45" s="209"/>
-      <c r="J45" s="209"/>
-      <c r="K45" s="222"/>
-    </row>
-    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="177" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B46" s="183" t="s">
-        <v>235</v>
-      </c>
-      <c r="C46" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D46" s="183" t="s">
-        <v>553</v>
-      </c>
-      <c r="E46" s="182"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="213"/>
-      <c r="H46" s="213"/>
-      <c r="I46" s="213"/>
-      <c r="J46" s="213"/>
-      <c r="K46" s="222"/>
-    </row>
-    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="177" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B47" s="183" t="s">
-        <v>236</v>
-      </c>
-      <c r="C47" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D47" s="183" t="s">
-        <v>554</v>
-      </c>
-      <c r="E47" s="182"/>
-      <c r="F47" s="213"/>
-      <c r="G47" s="213"/>
-      <c r="H47" s="213"/>
-      <c r="I47" s="213"/>
-      <c r="J47" s="213"/>
-      <c r="K47" s="222"/>
-    </row>
-    <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="177" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B48" s="183" t="s">
-        <v>488</v>
-      </c>
-      <c r="C48" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D48" s="183" t="s">
-        <v>555</v>
-      </c>
-      <c r="E48" s="182"/>
-      <c r="F48" s="213"/>
-      <c r="G48" s="213"/>
-      <c r="H48" s="213"/>
-      <c r="I48" s="213"/>
-      <c r="J48" s="213"/>
-      <c r="K48" s="222"/>
-    </row>
-    <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="177" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B49" s="183" t="s">
-        <v>489</v>
-      </c>
-      <c r="C49" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D49" s="183" t="s">
-        <v>556</v>
-      </c>
-      <c r="E49" s="182"/>
-      <c r="F49" s="213"/>
-      <c r="G49" s="213"/>
-      <c r="H49" s="213"/>
-      <c r="I49" s="213"/>
-      <c r="J49" s="213"/>
-      <c r="K49" s="222"/>
-    </row>
-    <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="177" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B50" s="183" t="s">
-        <v>490</v>
-      </c>
-      <c r="C50" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D50" s="183" t="s">
-        <v>557</v>
-      </c>
-      <c r="E50" s="182"/>
-      <c r="F50" s="213"/>
-      <c r="G50" s="213"/>
-      <c r="H50" s="213"/>
-      <c r="I50" s="213"/>
-      <c r="J50" s="213"/>
-      <c r="K50" s="222"/>
-    </row>
-    <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="177" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B51" s="183" t="s">
-        <v>491</v>
-      </c>
-      <c r="C51" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D51" s="183" t="s">
-        <v>555</v>
-      </c>
-      <c r="E51" s="182"/>
-      <c r="F51" s="213"/>
-      <c r="G51" s="213"/>
-      <c r="H51" s="213"/>
-      <c r="I51" s="213"/>
-      <c r="J51" s="213"/>
-      <c r="K51" s="222"/>
-    </row>
-    <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="177" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B52" s="183" t="s">
-        <v>492</v>
-      </c>
-      <c r="C52" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D52" s="183" t="s">
-        <v>523</v>
-      </c>
-      <c r="E52" s="182"/>
-      <c r="F52" s="213"/>
-      <c r="G52" s="213"/>
-      <c r="H52" s="213"/>
-      <c r="I52" s="213"/>
-      <c r="J52" s="213"/>
-      <c r="K52" s="222"/>
-    </row>
-    <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="177" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B53" s="183" t="s">
-        <v>364</v>
-      </c>
-      <c r="C53" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D53" s="183" t="s">
-        <v>524</v>
-      </c>
-      <c r="E53" s="182"/>
-      <c r="F53" s="213"/>
-      <c r="G53" s="213"/>
-      <c r="H53" s="213"/>
-      <c r="I53" s="213"/>
-      <c r="J53" s="213"/>
-      <c r="K53" s="222"/>
-    </row>
-    <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="177" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B54" s="183" t="s">
-        <v>365</v>
-      </c>
-      <c r="C54" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D54" s="183" t="s">
-        <v>525</v>
-      </c>
-      <c r="E54" s="182"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="213"/>
-      <c r="H54" s="213"/>
-      <c r="I54" s="213"/>
-      <c r="J54" s="213"/>
-      <c r="K54" s="222"/>
-    </row>
-    <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="177" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B55" s="183" t="s">
-        <v>366</v>
-      </c>
-      <c r="C55" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D55" s="183" t="s">
-        <v>526</v>
-      </c>
-      <c r="E55" s="182"/>
-      <c r="F55" s="213"/>
-      <c r="G55" s="213"/>
-      <c r="H55" s="213"/>
-      <c r="I55" s="213"/>
-      <c r="J55" s="213"/>
-      <c r="K55" s="222"/>
-    </row>
-    <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="177" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B56" s="183" t="s">
-        <v>367</v>
-      </c>
-      <c r="C56" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D56" s="183" t="s">
-        <v>527</v>
-      </c>
-      <c r="E56" s="182"/>
-      <c r="F56" s="213"/>
-      <c r="G56" s="213"/>
-      <c r="H56" s="213"/>
-      <c r="I56" s="213"/>
-      <c r="J56" s="213"/>
-      <c r="K56" s="222"/>
-    </row>
-    <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="177" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B57" s="183" t="s">
-        <v>206</v>
-      </c>
-      <c r="C57" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D57" s="183" t="s">
-        <v>544</v>
-      </c>
-      <c r="E57" s="182"/>
-      <c r="F57" s="213"/>
-      <c r="G57" s="213"/>
-      <c r="H57" s="213"/>
-      <c r="I57" s="213"/>
-      <c r="J57" s="213"/>
-      <c r="K57" s="222"/>
-    </row>
-    <row r="58" spans="1:11" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="177" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B58" s="183" t="s">
-        <v>207</v>
-      </c>
-      <c r="C58" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D58" s="183" t="s">
-        <v>545</v>
-      </c>
-      <c r="E58" s="182"/>
-      <c r="F58" s="213"/>
-      <c r="G58" s="213"/>
-      <c r="H58" s="213"/>
-      <c r="I58" s="213"/>
-      <c r="J58" s="213"/>
-      <c r="K58" s="222"/>
-    </row>
-    <row r="59" spans="1:11" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="177" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B59" s="183" t="s">
-        <v>208</v>
-      </c>
-      <c r="C59" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D59" s="183" t="s">
-        <v>546</v>
-      </c>
-      <c r="E59" s="182"/>
-      <c r="F59" s="213"/>
-      <c r="G59" s="213"/>
-      <c r="H59" s="213"/>
-      <c r="I59" s="213"/>
-      <c r="J59" s="213"/>
-      <c r="K59" s="222"/>
-    </row>
-    <row r="60" spans="1:11" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="177" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B60" s="183" t="s">
-        <v>368</v>
-      </c>
-      <c r="C60" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D60" s="183" t="s">
-        <v>547</v>
-      </c>
-      <c r="E60" s="182"/>
-      <c r="F60" s="213"/>
-      <c r="G60" s="213"/>
-      <c r="H60" s="213"/>
-      <c r="I60" s="213"/>
-      <c r="J60" s="213"/>
-      <c r="K60" s="222"/>
-    </row>
-    <row r="61" spans="1:11" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="177" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B61" s="183" t="s">
-        <v>369</v>
-      </c>
-      <c r="C61" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D61" s="183" t="s">
-        <v>548</v>
-      </c>
-      <c r="E61" s="182"/>
-      <c r="F61" s="213"/>
-      <c r="G61" s="213"/>
-      <c r="H61" s="213"/>
-      <c r="I61" s="213"/>
-      <c r="J61" s="213"/>
-      <c r="K61" s="222"/>
-    </row>
-    <row r="62" spans="1:11" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="177" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B62" s="183" t="s">
-        <v>373</v>
-      </c>
-      <c r="C62" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D62" s="183" t="s">
-        <v>493</v>
-      </c>
-      <c r="E62" s="182"/>
-      <c r="F62" s="213"/>
-      <c r="G62" s="213"/>
-      <c r="H62" s="213"/>
-      <c r="I62" s="213"/>
-      <c r="J62" s="213"/>
-      <c r="K62" s="222"/>
-    </row>
-    <row r="63" spans="1:11" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="177" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B63" s="183" t="s">
-        <v>374</v>
-      </c>
-      <c r="C63" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D63" s="183" t="s">
-        <v>528</v>
-      </c>
-      <c r="E63" s="183"/>
-      <c r="F63" s="213"/>
-      <c r="G63" s="213"/>
-      <c r="H63" s="213"/>
-      <c r="I63" s="213"/>
-      <c r="J63" s="213"/>
-      <c r="K63" s="222"/>
-    </row>
-    <row r="64" spans="1:11" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="177" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B64" s="183" t="s">
-        <v>375</v>
-      </c>
-      <c r="C64" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D64" s="183" t="s">
-        <v>529</v>
-      </c>
-      <c r="E64" s="182"/>
-      <c r="F64" s="213"/>
-      <c r="G64" s="213"/>
-      <c r="H64" s="213"/>
-      <c r="I64" s="213"/>
-      <c r="J64" s="213"/>
-      <c r="K64" s="222"/>
-    </row>
-    <row r="65" spans="1:12" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="177" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B65" s="183" t="s">
-        <v>376</v>
-      </c>
-      <c r="C65" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D65" s="183" t="s">
-        <v>530</v>
-      </c>
-      <c r="E65" s="182"/>
-      <c r="F65" s="213"/>
-      <c r="G65" s="213"/>
-      <c r="H65" s="213"/>
-      <c r="I65" s="213"/>
-      <c r="J65" s="213"/>
-      <c r="K65" s="222"/>
-    </row>
-    <row r="66" spans="1:12" s="180" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="177" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B66" s="183" t="s">
-        <v>377</v>
-      </c>
-      <c r="C66" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D66" s="183" t="s">
-        <v>531</v>
-      </c>
-      <c r="E66" s="182"/>
-      <c r="F66" s="213"/>
-      <c r="G66" s="213"/>
-      <c r="H66" s="213"/>
-      <c r="I66" s="213"/>
-      <c r="J66" s="213"/>
-      <c r="K66" s="222"/>
-    </row>
-    <row r="67" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="205" t="s">
-        <v>226</v>
-      </c>
-      <c r="B67" s="205"/>
-      <c r="C67" s="205"/>
-      <c r="D67" s="205"/>
-      <c r="E67" s="189"/>
-      <c r="F67" s="186"/>
-      <c r="G67" s="186"/>
-      <c r="H67" s="186"/>
-      <c r="I67" s="186"/>
-      <c r="J67" s="186"/>
-      <c r="K67" s="200"/>
-    </row>
-    <row r="68" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="177" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B68" s="181" t="s">
-        <v>217</v>
-      </c>
-      <c r="C68" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D68" s="176" t="s">
-        <v>532</v>
-      </c>
-      <c r="E68" s="181"/>
-      <c r="F68" s="213"/>
-      <c r="G68" s="213"/>
-      <c r="H68" s="213"/>
-      <c r="I68" s="213"/>
-      <c r="J68" s="213"/>
-      <c r="K68" s="222"/>
-    </row>
-    <row r="69" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="177" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B69" s="176" t="s">
-        <v>218</v>
-      </c>
-      <c r="C69" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D69" s="176" t="s">
-        <v>533</v>
-      </c>
-      <c r="E69" s="181"/>
-      <c r="F69" s="213"/>
-      <c r="G69" s="213"/>
-      <c r="H69" s="213"/>
-      <c r="I69" s="213"/>
-      <c r="J69" s="213"/>
-      <c r="K69" s="222"/>
-    </row>
-    <row r="70" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="177" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B70" s="176" t="s">
-        <v>219</v>
-      </c>
-      <c r="C70" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D70" s="176" t="s">
-        <v>534</v>
-      </c>
-      <c r="E70" s="181"/>
-      <c r="F70" s="213"/>
-      <c r="G70" s="213"/>
-      <c r="H70" s="213"/>
-      <c r="I70" s="213"/>
-      <c r="J70" s="213"/>
-      <c r="K70" s="222"/>
-    </row>
-    <row r="71" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="177" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B71" s="176" t="s">
-        <v>220</v>
-      </c>
-      <c r="C71" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D71" s="176" t="s">
-        <v>494</v>
-      </c>
-      <c r="E71" s="181"/>
-      <c r="F71" s="213"/>
-      <c r="G71" s="213"/>
-      <c r="H71" s="213"/>
-      <c r="I71" s="213"/>
-      <c r="J71" s="213"/>
-      <c r="K71" s="222"/>
-    </row>
-    <row r="72" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="177" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B72" s="176" t="s">
-        <v>221</v>
-      </c>
-      <c r="C72" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D72" s="176" t="s">
-        <v>535</v>
-      </c>
-      <c r="E72" s="181"/>
-      <c r="F72" s="213"/>
-      <c r="G72" s="213"/>
-      <c r="H72" s="213"/>
-      <c r="I72" s="213"/>
-      <c r="J72" s="213"/>
-      <c r="K72" s="222"/>
-    </row>
-    <row r="73" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="177" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B73" s="176" t="s">
-        <v>222</v>
-      </c>
-      <c r="C73" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D73" s="176" t="s">
-        <v>536</v>
-      </c>
-      <c r="E73" s="181"/>
-      <c r="F73" s="213"/>
-      <c r="G73" s="213"/>
-      <c r="H73" s="213"/>
-      <c r="I73" s="213"/>
-      <c r="J73" s="213"/>
-      <c r="K73" s="222"/>
-    </row>
-    <row r="74" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="177" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B74" s="176" t="s">
-        <v>223</v>
-      </c>
-      <c r="C74" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D74" s="176" t="s">
-        <v>537</v>
-      </c>
-      <c r="E74" s="181"/>
-      <c r="F74" s="213"/>
-      <c r="G74" s="213"/>
-      <c r="H74" s="213"/>
-      <c r="I74" s="213"/>
-      <c r="J74" s="213"/>
-      <c r="K74" s="222"/>
-    </row>
-    <row r="75" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="192" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B75" s="193" t="s">
-        <v>224</v>
-      </c>
-      <c r="C75" s="193" t="s">
-        <v>761</v>
-      </c>
-      <c r="D75" s="193" t="s">
-        <v>538</v>
-      </c>
-      <c r="E75" s="194"/>
-      <c r="F75" s="195"/>
-      <c r="G75" s="195"/>
-      <c r="H75" s="195"/>
-      <c r="I75" s="195"/>
-      <c r="J75" s="195"/>
-      <c r="K75" s="190" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="177" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B76" s="176" t="s">
-        <v>237</v>
-      </c>
-      <c r="C76" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="D76" s="176" t="s">
-        <v>558</v>
-      </c>
-      <c r="E76" s="181"/>
-      <c r="F76" s="213"/>
-      <c r="G76" s="213"/>
-      <c r="H76" s="213"/>
-      <c r="I76" s="213"/>
-      <c r="J76" s="213"/>
-      <c r="K76" s="196" t="s">
-        <v>559</v>
-      </c>
-      <c r="L76" s="185"/>
-    </row>
-    <row r="77" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F77" s="87"/>
-      <c r="G77" s="87"/>
-      <c r="H77" s="87"/>
-      <c r="I77" s="87"/>
-      <c r="J77" s="87"/>
-      <c r="K77" s="88"/>
-      <c r="L77" s="185"/>
-    </row>
-    <row r="78" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F78" s="87"/>
-      <c r="G78" s="87"/>
-      <c r="H78" s="87"/>
-      <c r="I78" s="87"/>
-      <c r="J78" s="87"/>
-      <c r="K78" s="88"/>
-      <c r="L78" s="185"/>
-    </row>
-    <row r="79" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="79"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="79"/>
-      <c r="F79" s="87"/>
-      <c r="G79" s="87"/>
-      <c r="H79" s="87"/>
-      <c r="I79" s="87"/>
-      <c r="J79" s="87"/>
-      <c r="K79" s="88"/>
-      <c r="L79" s="185"/>
-    </row>
-    <row r="80" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="79"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="79"/>
-      <c r="F80" s="87"/>
-      <c r="G80" s="87"/>
-      <c r="H80" s="87"/>
-      <c r="I80" s="87"/>
-      <c r="J80" s="87"/>
-      <c r="K80" s="88"/>
-      <c r="L80" s="185"/>
-    </row>
-    <row r="81" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="79"/>
-      <c r="C81" s="79"/>
-      <c r="D81" s="79"/>
-      <c r="F81" s="87"/>
-      <c r="G81" s="87"/>
-      <c r="H81" s="87"/>
-      <c r="I81" s="87"/>
-      <c r="J81" s="87"/>
-      <c r="K81" s="88"/>
-      <c r="L81" s="185"/>
-    </row>
-    <row r="82" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="79"/>
-      <c r="C82" s="79"/>
-      <c r="D82" s="79"/>
-      <c r="F82" s="87"/>
-      <c r="G82" s="87"/>
-      <c r="H82" s="87"/>
-      <c r="I82" s="87"/>
-      <c r="J82" s="87"/>
-      <c r="K82" s="88"/>
-      <c r="L82" s="185"/>
-    </row>
-    <row r="83" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="79"/>
-      <c r="C83" s="79"/>
-      <c r="D83" s="79"/>
-      <c r="F83" s="87"/>
-      <c r="G83" s="87"/>
-      <c r="H83" s="87"/>
-      <c r="I83" s="87"/>
-      <c r="J83" s="87"/>
-      <c r="K83" s="88"/>
-      <c r="L83" s="185"/>
-    </row>
-    <row r="84" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="79"/>
-      <c r="C84" s="79"/>
-      <c r="D84" s="79"/>
-      <c r="F84" s="87"/>
-      <c r="G84" s="87"/>
-      <c r="H84" s="87"/>
-      <c r="I84" s="87"/>
-      <c r="J84" s="87"/>
-      <c r="K84" s="88"/>
-      <c r="L84" s="185"/>
-    </row>
-    <row r="85" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F85" s="87"/>
-      <c r="G85" s="87"/>
-      <c r="H85" s="87"/>
-      <c r="I85" s="87"/>
-      <c r="J85" s="87"/>
-      <c r="K85" s="88"/>
-      <c r="L85" s="185"/>
-    </row>
-    <row r="86" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F86" s="87"/>
-      <c r="G86" s="87"/>
-      <c r="H86" s="87"/>
-      <c r="I86" s="87"/>
-      <c r="J86" s="87"/>
-      <c r="K86" s="88"/>
-      <c r="L86" s="185"/>
+    <row r="2" spans="1:11" s="135" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="650" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="650"/>
+      <c r="C2" s="651"/>
+      <c r="D2" s="651"/>
+      <c r="E2" s="651"/>
+      <c r="F2" s="651"/>
+      <c r="G2" s="651"/>
+      <c r="H2" s="651"/>
+      <c r="I2" s="651"/>
+      <c r="J2" s="651"/>
+      <c r="K2" s="651"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="181" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B3" s="445" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C3" s="445" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D3" s="445" t="s">
+        <v>2203</v>
+      </c>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+    </row>
+    <row r="4" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="652" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B4" s="445" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C4" s="445" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D4" s="445" t="s">
+        <v>2205</v>
+      </c>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="175"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="652" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B5" s="175" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C5" s="445" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D5" s="445" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="175"/>
+      <c r="K5" s="175"/>
+    </row>
+    <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="652" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B6" s="175" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C6" s="445" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D6" s="445" t="s">
+        <v>2209</v>
+      </c>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="175"/>
+    </row>
+    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="652" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B7" s="175" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C7" s="445" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D7" s="445" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+    </row>
+    <row r="8" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="652" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B8" s="175" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C8" s="445" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D8" s="445" t="s">
+        <v>2213</v>
+      </c>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="175"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="175"/>
+    </row>
+    <row r="9" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="652" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B9" s="175" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C9" s="445" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D9" s="445" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="175"/>
+    </row>
+    <row r="10" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="652" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B10" s="175" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C10" s="445" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D10" s="445" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+    </row>
+    <row r="11" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="652" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B11" s="175" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C11" s="445" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D11" s="445" t="s">
+        <v>2219</v>
+      </c>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+    </row>
+    <row r="12" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="652" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B12" s="445" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C12" s="445" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D12" s="104" t="s">
+        <v>2221</v>
+      </c>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+    </row>
+    <row r="13" spans="1:11" s="655" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="650" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="650"/>
+      <c r="C13" s="653"/>
+      <c r="D13" s="653"/>
+      <c r="E13" s="653"/>
+      <c r="F13" s="653"/>
+      <c r="G13" s="653"/>
+      <c r="H13" s="653"/>
+      <c r="I13" s="653"/>
+      <c r="J13" s="654"/>
+      <c r="K13" s="654"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="652" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B14" s="445" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C14" s="445" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D14" s="445" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="175"/>
+    </row>
+    <row r="15" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="652" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B15" s="445" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C15" s="445" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D15" s="445" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="175"/>
+    </row>
+    <row r="16" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="652" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B16" s="445" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C16" s="445" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D16" s="445" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+    </row>
+    <row r="17" spans="1:11" s="655" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="650" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B17" s="650"/>
+      <c r="C17" s="653"/>
+      <c r="D17" s="653"/>
+      <c r="E17" s="653"/>
+      <c r="F17" s="653"/>
+      <c r="G17" s="653"/>
+      <c r="H17" s="653"/>
+      <c r="I17" s="653"/>
+      <c r="J17" s="654"/>
+      <c r="K17" s="654"/>
+    </row>
+    <row r="18" spans="1:11" s="656" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="645" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B18" s="646" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C18" s="646" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D18" s="646" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E18" s="647"/>
+      <c r="F18" s="647"/>
+      <c r="G18" s="647"/>
+      <c r="H18" s="647"/>
+      <c r="I18" s="647"/>
+      <c r="J18" s="647"/>
+      <c r="K18" s="647"/>
+    </row>
+    <row r="19" spans="1:11" s="649" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="645" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B19" s="646" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C19" s="646" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D19" s="646" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E19" s="647"/>
+      <c r="F19" s="647"/>
+      <c r="G19" s="647"/>
+      <c r="H19" s="647"/>
+      <c r="I19" s="647"/>
+      <c r="J19" s="647"/>
+      <c r="K19" s="647"/>
+    </row>
+    <row r="20" spans="1:11" s="656" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="645" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B20" s="646" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C20" s="646" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D20" s="646" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E20" s="647"/>
+      <c r="F20" s="647"/>
+      <c r="G20" s="647"/>
+      <c r="H20" s="647"/>
+      <c r="I20" s="647"/>
+      <c r="J20" s="647"/>
+      <c r="K20" s="647"/>
+    </row>
+    <row r="21" spans="1:11" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="115" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="649" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="645" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B22" s="646" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C22" s="646" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D22" s="646" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E22" s="647"/>
+      <c r="F22" s="647"/>
+      <c r="G22" s="647"/>
+      <c r="H22" s="647"/>
+      <c r="I22" s="647"/>
+      <c r="J22" s="647"/>
+      <c r="K22" s="647"/>
+    </row>
+    <row r="23" spans="1:11" s="649" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="645" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B23" s="646" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C23" s="646" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D23" s="646" t="s">
+        <v>2201</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
